--- a/PerformanceMetrics.xlsx
+++ b/PerformanceMetrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Desktop\CSC4010\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F44B84-E4E9-486E-8A4D-8E499DF3048D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87040FFE-4EFF-456C-8E17-459536D3362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{FFBFD723-DCD6-4048-A582-308BA263E038}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{FFBFD723-DCD6-4048-A582-308BA263E038}"/>
   </bookViews>
   <sheets>
     <sheet name="par" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="kmp-full" sheetId="3" r:id="rId3"/>
     <sheet name="ac-inf" sheetId="5" r:id="rId4"/>
     <sheet name="ac-full" sheetId="4" r:id="rId5"/>
+    <sheet name="KMP Speedup" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="241">
   <si>
     <t>method a sequential</t>
   </si>
@@ -727,6 +728,42 @@
   </si>
   <si>
     <t>0.07.14</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>KMP-Inf (1 Thread)</t>
+  </si>
+  <si>
+    <t>KMP-Inf (2 Threads)</t>
+  </si>
+  <si>
+    <t>KMP-Inf (4 Threads)</t>
+  </si>
+  <si>
+    <t>KMP-Inf (8 Threads)</t>
+  </si>
+  <si>
+    <t>KMP-Inf (16 Threads)</t>
+  </si>
+  <si>
+    <t>KMP-Full (1 Thread)</t>
+  </si>
+  <si>
+    <t>KMP-Full (2 Threads)</t>
+  </si>
+  <si>
+    <t>KMP-Full (4 Threads)</t>
+  </si>
+  <si>
+    <t>KMP-Full (8 Threads)</t>
+  </si>
+  <si>
+    <t>KMP-Full (16 Threads)</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
   </si>
 </sst>
 </file>
@@ -861,12 +898,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -877,6 +908,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,46 +1252,46 @@
   <dimension ref="E6:AH63"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E13"/>
+      <selection activeCell="E6" sqref="E6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="5:34" x14ac:dyDescent="0.25">
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="M6" s="10" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12"/>
-      <c r="V6" s="8" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="10"/>
+      <c r="V6" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AC6" s="8" t="s">
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AC6" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
     </row>
     <row r="7" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E7" s="3"/>
@@ -1295,22 +1332,22 @@
       <c r="S7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AC7" s="7" t="s">
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AC7" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
     </row>
     <row r="8" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
@@ -1639,22 +1676,22 @@
       <c r="S12" s="1">
         <v>71</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="V12" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AC12" s="7" t="s">
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AC12" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
     </row>
     <row r="13" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E13" s="4" t="s">
@@ -1699,22 +1736,22 @@
       <c r="S13" s="1">
         <v>1050004</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="V13" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AC13" s="7" t="s">
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AC13" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
     </row>
     <row r="14" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="V14" s="4" t="s">
@@ -1793,22 +1830,22 @@
       </c>
     </row>
     <row r="16" spans="5:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="V16" s="4" t="s">
@@ -1931,22 +1968,22 @@
       <c r="S18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AC18" s="7" t="s">
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AC18" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
     </row>
     <row r="19" spans="5:34" ht="30" x14ac:dyDescent="0.25">
       <c r="E19" s="4" t="s">
@@ -1991,22 +2028,22 @@
       <c r="S19" s="1">
         <v>1</v>
       </c>
-      <c r="V19" s="7" t="s">
+      <c r="V19" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AC19" s="7" t="s">
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AC19" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
     </row>
     <row r="20" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E20" s="4" t="s">
@@ -2293,58 +2330,58 @@
       </c>
     </row>
     <row r="24" spans="5:34" x14ac:dyDescent="0.25">
-      <c r="V24" s="7" t="s">
+      <c r="V24" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AC24" s="7" t="s">
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AC24" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
     </row>
     <row r="25" spans="5:34" x14ac:dyDescent="0.25">
-      <c r="V25" s="7" t="s">
+      <c r="V25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AC25" s="7" t="s">
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AC25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
     </row>
     <row r="26" spans="5:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="V26" s="4" t="s">
@@ -2627,22 +2664,22 @@
       <c r="S30" s="1">
         <v>168</v>
       </c>
-      <c r="V30" s="7" t="s">
+      <c r="V30" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AC30" s="7" t="s">
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AC30" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
     </row>
     <row r="31" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
@@ -2687,22 +2724,22 @@
       <c r="S31" s="1">
         <v>7</v>
       </c>
-      <c r="V31" s="7" t="s">
+      <c r="V31" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AC31" s="7" t="s">
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AC31" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
     </row>
     <row r="32" spans="5:34" ht="60" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
@@ -2903,40 +2940,40 @@
       </c>
     </row>
     <row r="36" spans="5:34" x14ac:dyDescent="0.25">
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="V36" s="7" t="s">
+      <c r="V36" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-      <c r="AC36" s="7" t="s">
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AC36" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
     </row>
     <row r="37" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E37" s="2"/>
@@ -2977,22 +3014,22 @@
       <c r="S37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="V37" s="7" t="s">
+      <c r="V37" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AC37" s="7" t="s">
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AC37" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
     </row>
     <row r="38" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
@@ -3367,22 +3404,22 @@
       </c>
     </row>
     <row r="46" spans="5:34" x14ac:dyDescent="0.25">
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="M46" s="9" t="s">
+      <c r="M46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
@@ -3692,22 +3729,22 @@
       </c>
     </row>
     <row r="56" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="M56" s="9" t="s">
+      <c r="M56" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
     </row>
@@ -4017,32 +4054,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="M46:Q46"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="V12:AA12"/>
-    <mergeCell ref="V13:AA13"/>
-    <mergeCell ref="AC6:AH6"/>
-    <mergeCell ref="AC7:AH7"/>
-    <mergeCell ref="AC12:AH12"/>
-    <mergeCell ref="AC13:AH13"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="AC18:AH18"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="AC19:AH19"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AC24:AH24"/>
     <mergeCell ref="V36:AA36"/>
     <mergeCell ref="AC36:AH36"/>
     <mergeCell ref="V37:AA37"/>
@@ -4053,6 +4064,32 @@
     <mergeCell ref="AC30:AH30"/>
     <mergeCell ref="V31:AA31"/>
     <mergeCell ref="AC31:AH31"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="AC18:AH18"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="AC19:AH19"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AC24:AH24"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="V12:AA12"/>
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="AC6:AH6"/>
+    <mergeCell ref="AC7:AH7"/>
+    <mergeCell ref="AC12:AH12"/>
+    <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="M6:S6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4063,27 +4100,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBE51D2-C867-4041-96CE-833B58A8F4AC}">
   <dimension ref="D6:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D6" s="9" t="s">
+    <row r="6" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="L6" s="9" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="L6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
@@ -4390,20 +4427,20 @@
       </c>
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="L16" s="9" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="L16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
@@ -4710,20 +4747,20 @@
       </c>
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="L26" s="9" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="L26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
@@ -5030,20 +5067,20 @@
       </c>
     </row>
     <row r="36" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="L36" s="9" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="L36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
     </row>
     <row r="37" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
@@ -5350,20 +5387,20 @@
       </c>
     </row>
     <row r="46" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="L46" s="9" t="s">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="L46" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
     </row>
     <row r="47" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D47" s="2"/>
@@ -5690,27 +5727,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFC8E37-3D9D-4730-A4AC-F52328F9A960}">
   <dimension ref="F5:T53"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T53" sqref="T53"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="N5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
@@ -6017,20 +6054,20 @@
       </c>
     </row>
     <row r="15" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="N15" s="9" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="N15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
@@ -6337,20 +6374,20 @@
       </c>
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="N26" s="9" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="N26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
@@ -6657,20 +6694,20 @@
       </c>
     </row>
     <row r="36" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="N36" s="9" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="N36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
     </row>
     <row r="37" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F37" s="2"/>
@@ -6977,20 +7014,20 @@
       </c>
     </row>
     <row r="46" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="N46" s="9" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="N46" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
     </row>
     <row r="47" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F47" s="2"/>
@@ -7317,29 +7354,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B532B7-47C1-4A60-9826-1DFF4CC7E590}">
   <dimension ref="E4:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E5" s="3"/>
@@ -7646,20 +7683,20 @@
       </c>
     </row>
     <row r="14" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="M14" s="9" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="M14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
@@ -7966,20 +8003,20 @@
       </c>
     </row>
     <row r="24" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="M24" s="9" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="M24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
@@ -8286,20 +8323,20 @@
       </c>
     </row>
     <row r="34" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="M34" s="9" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="M34" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
@@ -8606,20 +8643,20 @@
       </c>
     </row>
     <row r="44" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="M44" s="9" t="s">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="M44" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
@@ -8953,20 +8990,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
@@ -9273,20 +9310,20 @@
       </c>
     </row>
     <row r="14" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="M14" s="9" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="M14" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
@@ -9593,20 +9630,20 @@
       </c>
     </row>
     <row r="24" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="M24" s="9" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="M24" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
@@ -9913,20 +9950,20 @@
       </c>
     </row>
     <row r="34" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="M34" s="9" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="M34" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
@@ -10233,20 +10270,20 @@
       </c>
     </row>
     <row r="44" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="M44" s="9" t="s">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="M44" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
@@ -10567,4 +10604,1939 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EAC10D-4C81-4CC8-A0F0-5E5CF8F991CB}">
+  <dimension ref="B2:AH44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="J2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+      <c r="T2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AB2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="10"/>
+    </row>
+    <row r="3" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="G4" s="1">
+        <v>26.29</v>
+      </c>
+      <c r="H4" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O4" s="1">
+        <v>26.68</v>
+      </c>
+      <c r="P4" s="1">
+        <v>19.13</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V4" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>26.29</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>26.68</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>19.13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="T7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+    </row>
+    <row r="9" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43.16</v>
+      </c>
+      <c r="H9" s="1">
+        <v>22.92</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="O9" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="P9" s="1">
+        <v>21.74</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="V9" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>44.1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>32.53</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>4.76</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>42.87</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>30.16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="1">
+        <f>C4/C9</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:P11" si="0">D4/D9</f>
+        <v>0.94252873563218387</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90733590733590741</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60912882298424464</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87216404886561938</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95942028985507244</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90551181102362199</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89530201342281879</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87994480220791171</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U11" s="1">
+        <f>U4/U9</f>
+        <v>0.6</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" ref="V11:AH11" si="1">V4/V9</f>
+        <v>0.65338645418326691</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.649171270718232</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59614512471655323</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61450968336919765</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" ref="AC11:AH11" si="2">AC4/AC9</f>
+        <v>0.375</v>
+      </c>
+      <c r="AD11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69537815126050428</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6784660766961651</v>
+      </c>
+      <c r="AG11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.62234662934453</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.63428381962864722</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="1">
+        <f>(C11 / 1) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ref="D12:P12" si="3">(D11 / 1) * 100</f>
+        <v>94.252873563218387</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>90.733590733590745</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>60.912882298424464</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>87.216404886561932</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>95.94202898550725</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="3"/>
+        <v>90.551181102362193</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="3"/>
+        <v>89.530201342281885</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="3"/>
+        <v>87.994480220791175</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="U12" s="1">
+        <f>(U11 / 1) * 100</f>
+        <v>60</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" ref="V12" si="4">(V11 / 1) * 100</f>
+        <v>65.338645418326692</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" ref="W12" si="5">(W11 / 1) * 100</f>
+        <v>22.222222222222225</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" ref="X12" si="6">(X11 / 1) * 100</f>
+        <v>64.917127071823202</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" ref="Y12" si="7">(Y11 / 1) * 100</f>
+        <v>59.614512471655324</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" ref="Z12" si="8">(Z11 / 1) * 100</f>
+        <v>61.450968336919765</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" ref="AC12" si="9">(AC11 / 1) * 100</f>
+        <v>37.5</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" ref="AD12" si="10">(AD11 / 1) * 100</f>
+        <v>69.537815126050432</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" ref="AE12" si="11">(AE11 / 1) * 100</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" ref="AF12" si="12">(AF11 / 1) * 100</f>
+        <v>67.846607669616503</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" ref="AG12" si="13">(AG11 / 1) * 100</f>
+        <v>62.234662934452999</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" ref="AH12" si="14">(AH11 / 1) * 100</f>
+        <v>63.428381962864719</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="T15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+    </row>
+    <row r="17" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="G17" s="1">
+        <v>31.33</v>
+      </c>
+      <c r="H17" s="1">
+        <v>23.02</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="O17" s="1">
+        <v>16.07</v>
+      </c>
+      <c r="P17" s="1">
+        <v>12.87</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="V17" s="1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="X17" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>22.92</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>19.45</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C4/C17</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:P19" si="15">D4/D17</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="15"/>
+        <v>1.0042735042735045</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="15"/>
+        <v>0.83913182253431218</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="15"/>
+        <v>0.86837532580364896</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="15"/>
+        <v>1.9820359281437128</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="15"/>
+        <v>1.7968749999999998</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="15"/>
+        <v>1.6602364654635968</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="15"/>
+        <v>1.4864024864024865</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U19" s="1">
+        <f>U4/U17</f>
+        <v>0.5</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" ref="V19:AH19" si="16">V4/V17</f>
+        <v>0.67075664621676889</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="16"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="16"/>
+        <v>0.88014981273408244</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="16"/>
+        <v>1.1470331588132634</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="16"/>
+        <v>1.0277634961439588</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" ref="AC19:AH19" si="17">AC4/AC17</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" si="17"/>
+        <v>0.98511904761904767</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" si="17"/>
+        <v>1.1386138613861385</v>
+      </c>
+      <c r="AG19" s="1">
+        <f t="shared" si="17"/>
+        <v>1.2238532110091742</v>
+      </c>
+      <c r="AH19" s="1">
+        <f t="shared" si="17"/>
+        <v>1.0711086226203808</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="1">
+        <f xml:space="preserve"> (C19 / 2) * 100</f>
+        <v>50</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:P20" si="18" xml:space="preserve"> (D19 / 2) * 100</f>
+        <v>50</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="18"/>
+        <v>50.213675213675224</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="18"/>
+        <v>41.956591126715608</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="18"/>
+        <v>43.418766290182447</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1">
+        <f t="shared" si="18"/>
+        <v>150</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="18"/>
+        <v>99.101796407185645</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="18"/>
+        <v>89.843749999999986</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="18"/>
+        <v>83.011823273179843</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="18"/>
+        <v>74.320124320124322</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="U20" s="1">
+        <f xml:space="preserve"> (U19 / 2) * 100</f>
+        <v>25</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" ref="V20" si="19" xml:space="preserve"> (V19 / 2) * 100</f>
+        <v>33.537832310838446</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" ref="W20" si="20" xml:space="preserve"> (W19 / 2) * 100</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" ref="X20" si="21" xml:space="preserve"> (X19 / 2) * 100</f>
+        <v>44.007490636704119</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" ref="Y20" si="22" xml:space="preserve"> (Y19 / 2) * 100</f>
+        <v>57.351657940663173</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" ref="Z20" si="23" xml:space="preserve"> (Z19 / 2) * 100</f>
+        <v>51.388174807197942</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1">
+        <f t="shared" ref="AC20" si="24" xml:space="preserve"> (AC19 / 2) * 100</f>
+        <v>25</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" ref="AD20" si="25" xml:space="preserve"> (AD19 / 2) * 100</f>
+        <v>49.255952380952387</v>
+      </c>
+      <c r="AE20" s="1">
+        <f t="shared" ref="AE20" si="26" xml:space="preserve"> (AE19 / 2) * 100</f>
+        <v>25</v>
+      </c>
+      <c r="AF20" s="1">
+        <f t="shared" ref="AF20" si="27" xml:space="preserve"> (AF19 / 2) * 100</f>
+        <v>56.930693069306926</v>
+      </c>
+      <c r="AG20" s="1">
+        <f t="shared" ref="AG20" si="28" xml:space="preserve"> (AG19 / 2) * 100</f>
+        <v>61.192660550458712</v>
+      </c>
+      <c r="AH20" s="1">
+        <f t="shared" ref="AH20" si="29" xml:space="preserve"> (AH19 / 2) * 100</f>
+        <v>53.555431131019034</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="T23" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+    </row>
+    <row r="25" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G25" s="1">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="H25" s="1">
+        <v>21.89</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O25" s="1">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="P25" s="1">
+        <v>7.12</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>18.62</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="1">
+        <f>C4/C25</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ref="D27:P27" si="30">D4/D25</f>
+        <v>1.0969899665551839</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="30"/>
+        <v>1.0307017543859651</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="30"/>
+        <v>0.72785160575858254</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="30"/>
+        <v>0.91320237551393324</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="30"/>
+        <v>3.3775510204081636</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="30"/>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="30"/>
+        <v>2.7966457023060798</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="30"/>
+        <v>2.6867977528089888</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U27" s="1">
+        <f>U4/U25</f>
+        <v>1</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" ref="V27:AH27" si="31">V4/V25</f>
+        <v>2.1437908496732025</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="31"/>
+        <v>0.25</v>
+      </c>
+      <c r="X27" s="1">
+        <f t="shared" si="31"/>
+        <v>1.5562913907284768</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" si="31"/>
+        <v>1.8131034482758621</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="31"/>
+        <v>1.0735767991407088</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC27" s="1">
+        <f t="shared" ref="AC27:AH27" si="32">AC4/AC25</f>
+        <v>0.6</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" si="32"/>
+        <v>2.1082802547770698</v>
+      </c>
+      <c r="AE27" s="1">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AF27" s="1">
+        <f t="shared" si="32"/>
+        <v>1.7557251908396945</v>
+      </c>
+      <c r="AG27" s="1">
+        <f t="shared" si="32"/>
+        <v>1.4611171960569549</v>
+      </c>
+      <c r="AH27" s="1">
+        <f t="shared" si="32"/>
+        <v>1.2169211195928753</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <f xml:space="preserve"> (C27 / 4 ) * 100</f>
+        <v>25</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28:AH28" si="33" xml:space="preserve"> (D27 / 4 ) * 100</f>
+        <v>27.424749163879596</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="33"/>
+        <v>25</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="33"/>
+        <v>25.767543859649127</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="33"/>
+        <v>18.196290143964564</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="33"/>
+        <v>22.83005938784833</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1">
+        <f t="shared" si="33"/>
+        <v>75</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="33"/>
+        <v>84.438775510204096</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="33"/>
+        <v>50</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="33"/>
+        <v>82.142857142857139</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="33"/>
+        <v>69.916142557651995</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="33"/>
+        <v>67.169943820224717</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1">
+        <f t="shared" si="33"/>
+        <v>25</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="33"/>
+        <v>53.594771241830067</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="33"/>
+        <v>6.25</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" si="33"/>
+        <v>38.907284768211916</v>
+      </c>
+      <c r="Y28" s="1">
+        <f t="shared" si="33"/>
+        <v>45.327586206896555</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="33"/>
+        <v>26.839419978517721</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1">
+        <f t="shared" si="33"/>
+        <v>15</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" si="33"/>
+        <v>52.707006369426743</v>
+      </c>
+      <c r="AE28" s="1">
+        <f t="shared" si="33"/>
+        <v>25</v>
+      </c>
+      <c r="AF28" s="1">
+        <f t="shared" si="33"/>
+        <v>43.89312977099236</v>
+      </c>
+      <c r="AG28" s="1">
+        <f t="shared" si="33"/>
+        <v>36.527929901423875</v>
+      </c>
+      <c r="AH28" s="1">
+        <f t="shared" si="33"/>
+        <v>30.423027989821882</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="T31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+    </row>
+    <row r="33" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="G33" s="1">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="H33" s="1">
+        <v>22.18</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O33" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="P33" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="V33" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>19.77</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>7.06</v>
+      </c>
+      <c r="AB33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>10.95</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C4/C33</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:O35" si="34">D4/D33</f>
+        <v>1.2762645914396886</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="34"/>
+        <v>1.0262008733624455</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="34"/>
+        <v>0.65922768304914736</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="34"/>
+        <v>0.90126239855725876</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="34"/>
+        <v>1.5</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="34"/>
+        <v>3.0934579439252334</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="34"/>
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="34"/>
+        <v>4.0350877192982457</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="34"/>
+        <v>2.9126637554585151</v>
+      </c>
+      <c r="P35" s="1">
+        <f>P4/P33</f>
+        <v>3.5557620817843865</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U35" s="1">
+        <f>U4/U33</f>
+        <v>0.75</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" ref="V35:AG35" si="35">V4/V33</f>
+        <v>3.2475247524752473</v>
+      </c>
+      <c r="W35" s="1">
+        <f t="shared" si="35"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="X35" s="1">
+        <f t="shared" si="35"/>
+        <v>3.671875</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="35"/>
+        <v>1.3297926150733435</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="35"/>
+        <v>2.8314447592067986</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC35" s="1">
+        <f t="shared" ref="AC35:AH35" si="36">AC4/AC33</f>
+        <v>0.75</v>
+      </c>
+      <c r="AD35" s="1">
+        <f t="shared" si="36"/>
+        <v>3.5591397849462365</v>
+      </c>
+      <c r="AE35" s="1">
+        <f t="shared" si="36"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AF35" s="1">
+        <f t="shared" si="36"/>
+        <v>3.5937499999999996</v>
+      </c>
+      <c r="AG35" s="1">
+        <f t="shared" si="36"/>
+        <v>2.4365296803652972</v>
+      </c>
+      <c r="AH35" s="1">
+        <f>AH4/AH33</f>
+        <v>2.0115667718191377</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
+        <f xml:space="preserve"> (C35 / 8) * 100</f>
+        <v>12.5</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:AH36" si="37" xml:space="preserve"> (D35 / 8) * 100</f>
+        <v>15.953307392996107</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="37"/>
+        <v>12.5</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="37"/>
+        <v>12.827510917030569</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="37"/>
+        <v>8.2403460381143425</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="37"/>
+        <v>11.265779981965734</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1">
+        <f t="shared" si="37"/>
+        <v>18.75</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="37"/>
+        <v>38.668224299065415</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="37"/>
+        <v>6.25</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="37"/>
+        <v>50.438596491228068</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="37"/>
+        <v>36.408296943231441</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="37"/>
+        <v>44.447026022304833</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1">
+        <f t="shared" si="37"/>
+        <v>9.375</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" si="37"/>
+        <v>40.594059405940591</v>
+      </c>
+      <c r="W36" s="1">
+        <f t="shared" si="37"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="X36" s="1">
+        <f t="shared" si="37"/>
+        <v>45.8984375</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="37"/>
+        <v>16.622407688416793</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="37"/>
+        <v>35.39305949008498</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1">
+        <f t="shared" si="37"/>
+        <v>9.375</v>
+      </c>
+      <c r="AD36" s="1">
+        <f t="shared" si="37"/>
+        <v>44.48924731182796</v>
+      </c>
+      <c r="AE36" s="1">
+        <f t="shared" si="37"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AF36" s="1">
+        <f t="shared" si="37"/>
+        <v>44.921874999999993</v>
+      </c>
+      <c r="AG36" s="1">
+        <f t="shared" si="37"/>
+        <v>30.456621004566216</v>
+      </c>
+      <c r="AH36" s="1">
+        <f t="shared" si="37"/>
+        <v>25.144584647739222</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="T39" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+    </row>
+    <row r="41" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="G41" s="1">
+        <v>36.03</v>
+      </c>
+      <c r="H41" s="1">
+        <v>20.96</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="M41" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="O41" s="1">
+        <v>11.19</v>
+      </c>
+      <c r="P41" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="AB41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="1">
+        <f>C4/C41</f>
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43:P43" si="38">D4/D41</f>
+        <v>0.7404063205417607</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="38"/>
+        <v>0.96311475409836067</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="38"/>
+        <v>0.72966971967804606</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="38"/>
+        <v>0.95372137404580137</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="38"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="38"/>
+        <v>5.171875</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="38"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="38"/>
+        <v>4.7916666666666661</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="38"/>
+        <v>2.3842716711349419</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="38"/>
+        <v>4.8801020408163263</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U43" s="1">
+        <f>U4/U41</f>
+        <v>0.375</v>
+      </c>
+      <c r="V43" s="1">
+        <f t="shared" ref="V43:AH43" si="39">V4/V41</f>
+        <v>4.1518987341772151</v>
+      </c>
+      <c r="W43" s="1">
+        <f t="shared" si="39"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="X43" s="1">
+        <f t="shared" si="39"/>
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="Y43" s="1">
+        <f t="shared" si="39"/>
+        <v>1.6745222929936305</v>
+      </c>
+      <c r="Z43" s="1">
+        <f t="shared" si="39"/>
+        <v>3.7294776119402981</v>
+      </c>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC43" s="1">
+        <f t="shared" ref="AC43:AH43" si="40">AC4/AC41</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD43" s="1">
+        <f t="shared" si="40"/>
+        <v>6.0181818181818176</v>
+      </c>
+      <c r="AE43" s="1">
+        <f t="shared" si="40"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF43" s="1">
+        <f t="shared" si="40"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AG43" s="1">
+        <f t="shared" si="40"/>
+        <v>5.2109375</v>
+      </c>
+      <c r="AH43" s="1">
+        <f t="shared" si="40"/>
+        <v>4.1051502145922747</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <f xml:space="preserve"> (C43 / 16) * 100</f>
+        <v>4.6875</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" ref="D44:AH44" si="41" xml:space="preserve"> (D43 / 16) * 100</f>
+        <v>4.6275395033860045</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="41"/>
+        <v>6.25</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="41"/>
+        <v>6.019467213114754</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="41"/>
+        <v>4.5604357479877882</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="41"/>
+        <v>5.960758587786259</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1">
+        <f t="shared" si="41"/>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="41"/>
+        <v>32.32421875</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="41"/>
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="41"/>
+        <v>29.947916666666664</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="41"/>
+        <v>14.901697944593387</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="41"/>
+        <v>30.500637755102041</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1">
+        <f t="shared" si="41"/>
+        <v>2.34375</v>
+      </c>
+      <c r="V44" s="1">
+        <f t="shared" si="41"/>
+        <v>25.949367088607595</v>
+      </c>
+      <c r="W44" s="1">
+        <f t="shared" si="41"/>
+        <v>2.5</v>
+      </c>
+      <c r="X44" s="1">
+        <f t="shared" si="41"/>
+        <v>19.583333333333332</v>
+      </c>
+      <c r="Y44" s="1">
+        <f t="shared" si="41"/>
+        <v>10.46576433121019</v>
+      </c>
+      <c r="Z44" s="1">
+        <f t="shared" si="41"/>
+        <v>23.309235074626862</v>
+      </c>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1">
+        <f t="shared" si="41"/>
+        <v>3.125</v>
+      </c>
+      <c r="AD44" s="1">
+        <f t="shared" si="41"/>
+        <v>37.61363636363636</v>
+      </c>
+      <c r="AE44" s="1">
+        <f t="shared" si="41"/>
+        <v>3.125</v>
+      </c>
+      <c r="AF44" s="1">
+        <f t="shared" si="41"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="AG44" s="1">
+        <f t="shared" si="41"/>
+        <v>32.568359375</v>
+      </c>
+      <c r="AH44" s="1">
+        <f t="shared" si="41"/>
+        <v>25.657188841201716</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B39:P39"/>
+    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="T15:AH15"/>
+    <mergeCell ref="T23:AH23"/>
+    <mergeCell ref="T31:AH31"/>
+    <mergeCell ref="T39:AH39"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B31:P31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PerformanceMetrics.xlsx
+++ b/PerformanceMetrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Desktop\CSC4010\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87040FFE-4EFF-456C-8E17-459536D3362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6322A9CB-6AB4-4411-97E3-745B530105A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{FFBFD723-DCD6-4048-A582-308BA263E038}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="kmp-full" sheetId="3" r:id="rId3"/>
     <sheet name="ac-inf" sheetId="5" r:id="rId4"/>
     <sheet name="ac-full" sheetId="4" r:id="rId5"/>
-    <sheet name="KMP Speedup" sheetId="7" r:id="rId6"/>
+    <sheet name="KMP Speedup&amp;Efficiency" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -10610,8 +10610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EAC10D-4C81-4CC8-A0F0-5E5CF8F991CB}">
   <dimension ref="B2:AH44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" topLeftCell="F23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PerformanceMetrics.xlsx
+++ b/PerformanceMetrics.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\Desktop\CSC4010-Assignment-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Desktop\CSC4010\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54B2632-8918-45E9-85C6-52E4F933EF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6BABDB-6F84-41D1-876C-C5DC8980A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{FFBFD723-DCD6-4048-A582-308BA263E038}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{FFBFD723-DCD6-4048-A582-308BA263E038}"/>
   </bookViews>
   <sheets>
     <sheet name="par" sheetId="1" r:id="rId1"/>
     <sheet name="kmp-inf" sheetId="2" r:id="rId2"/>
     <sheet name="kmp-full" sheetId="3" r:id="rId3"/>
     <sheet name="KMP Speedup&amp;Efficiency" sheetId="7" r:id="rId4"/>
-    <sheet name="ac-inf" sheetId="5" r:id="rId5"/>
-    <sheet name="ac-full" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="KMP Speedup+Efficiency" sheetId="9" r:id="rId5"/>
+    <sheet name="ac-inf" sheetId="5" r:id="rId6"/>
+    <sheet name="ac-full" sheetId="4" r:id="rId7"/>
+    <sheet name="AC Speedup&amp;Efficiency" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="251">
   <si>
     <t>method a sequential</t>
   </si>
@@ -783,6 +784,18 @@
   </si>
   <si>
     <t>method b ac-full</t>
+  </si>
+  <si>
+    <t>Method A KMP-Inf</t>
+  </si>
+  <si>
+    <t>Method B KMP-Finf</t>
+  </si>
+  <si>
+    <t>Method A KMP-Full</t>
+  </si>
+  <si>
+    <t>Method B KMP-Full</t>
   </si>
 </sst>
 </file>
@@ -804,12 +817,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -962,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -978,11 +997,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -996,15 +1012,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1018,9 +1030,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,45 +1415,45 @@
       <selection activeCell="E6" sqref="E6:S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="5:34" x14ac:dyDescent="0.3">
-      <c r="E6" s="9" t="s">
+    <row r="6" spans="5:34" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="M6" s="10" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12"/>
-      <c r="V6" s="8" t="s">
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="V6" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AC6" s="8" t="s">
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AC6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-    </row>
-    <row r="7" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+    </row>
+    <row r="7" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E7" s="3"/>
       <c r="F7" s="5" t="s">
         <v>117</v>
@@ -1438,24 +1492,24 @@
       <c r="S7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AC7" s="7" t="s">
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AC7" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-    </row>
-    <row r="8" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+    </row>
+    <row r="8" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
         <v>112</v>
       </c>
@@ -1535,7 +1589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="5:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:34" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
         <v>113</v>
       </c>
@@ -1615,7 +1669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="5:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:34" ht="30" x14ac:dyDescent="0.25">
       <c r="E10" s="4" t="s">
         <v>123</v>
       </c>
@@ -1695,7 +1749,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
         <v>114</v>
       </c>
@@ -1739,7 +1793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:34" ht="60" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>115</v>
       </c>
@@ -1782,24 +1836,24 @@
       <c r="S12" s="1">
         <v>71</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="V12" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AC12" s="7" t="s">
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AC12" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-    </row>
-    <row r="13" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+    </row>
+    <row r="13" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E13" s="4" t="s">
         <v>116</v>
       </c>
@@ -1842,24 +1896,24 @@
       <c r="S13" s="1">
         <v>1050004</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="V13" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AC13" s="7" t="s">
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AC13" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-    </row>
-    <row r="14" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+    </row>
+    <row r="14" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="V14" s="4" t="s">
         <v>112</v>
       </c>
@@ -1897,7 +1951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="5:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:34" ht="30" x14ac:dyDescent="0.25">
       <c r="V15" s="4" t="s">
         <v>113</v>
       </c>
@@ -1935,23 +1989,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="5:34" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E16" s="9" t="s">
+    <row r="16" spans="5:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="V16" s="4" t="s">
@@ -1991,7 +2045,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="17" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
       <c r="F17" s="5" t="s">
         <v>117</v>
@@ -2031,7 +2085,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E18" s="4" t="s">
         <v>112</v>
       </c>
@@ -2074,24 +2128,24 @@
       <c r="S18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AC18" s="7" t="s">
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AC18" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-    </row>
-    <row r="19" spans="5:34" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+    </row>
+    <row r="19" spans="5:34" ht="30" x14ac:dyDescent="0.25">
       <c r="E19" s="4" t="s">
         <v>113</v>
       </c>
@@ -2134,24 +2188,24 @@
       <c r="S19" s="1">
         <v>1</v>
       </c>
-      <c r="V19" s="7" t="s">
+      <c r="V19" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AC19" s="7" t="s">
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AC19" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-    </row>
-    <row r="20" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+    </row>
+    <row r="20" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E20" s="4" t="s">
         <v>123</v>
       </c>
@@ -2231,7 +2285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E21" s="4" t="s">
         <v>114</v>
       </c>
@@ -2311,7 +2365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:34" ht="60" x14ac:dyDescent="0.25">
       <c r="E22" s="4" t="s">
         <v>115</v>
       </c>
@@ -2391,7 +2445,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="23" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E23" s="4" t="s">
         <v>116</v>
       </c>
@@ -2435,59 +2489,59 @@
         <v>1050492</v>
       </c>
     </row>
-    <row r="24" spans="5:34" x14ac:dyDescent="0.3">
-      <c r="V24" s="7" t="s">
+    <row r="24" spans="5:34" x14ac:dyDescent="0.25">
+      <c r="V24" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AC24" s="7" t="s">
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AC24" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-    </row>
-    <row r="25" spans="5:34" x14ac:dyDescent="0.3">
-      <c r="V25" s="7" t="s">
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+    </row>
+    <row r="25" spans="5:34" x14ac:dyDescent="0.25">
+      <c r="V25" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AC25" s="7" t="s">
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AC25" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-    </row>
-    <row r="26" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E26" s="9" t="s">
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+    </row>
+    <row r="26" spans="5:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="E26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="V26" s="4" t="s">
@@ -2527,7 +2581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
       <c r="F27" s="5" t="s">
         <v>117</v>
@@ -2603,7 +2657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E28" s="4" t="s">
         <v>112</v>
       </c>
@@ -2683,7 +2737,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="29" spans="5:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:34" ht="30" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
         <v>113</v>
       </c>
@@ -2727,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="5:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:34" ht="30" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>123</v>
       </c>
@@ -2770,24 +2824,24 @@
       <c r="S30" s="1">
         <v>168</v>
       </c>
-      <c r="V30" s="7" t="s">
+      <c r="V30" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AC30" s="7" t="s">
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AC30" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-    </row>
-    <row r="31" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+    </row>
+    <row r="31" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
         <v>114</v>
       </c>
@@ -2830,24 +2884,24 @@
       <c r="S31" s="1">
         <v>7</v>
       </c>
-      <c r="V31" s="7" t="s">
+      <c r="V31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AC31" s="7" t="s">
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AC31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-    </row>
-    <row r="32" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+    </row>
+    <row r="32" spans="5:34" ht="60" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>115</v>
       </c>
@@ -2927,7 +2981,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>116</v>
       </c>
@@ -3007,7 +3061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="5:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:34" ht="30" x14ac:dyDescent="0.25">
       <c r="V34" s="4" t="s">
         <v>123</v>
       </c>
@@ -3045,43 +3099,43 @@
         <v>755</v>
       </c>
     </row>
-    <row r="36" spans="5:34" x14ac:dyDescent="0.3">
-      <c r="E36" s="9" t="s">
+    <row r="36" spans="5:34" x14ac:dyDescent="0.25">
+      <c r="E36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="V36" s="7" t="s">
+      <c r="V36" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-      <c r="AC36" s="7" t="s">
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AC36" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
-    </row>
-    <row r="37" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+    </row>
+    <row r="37" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E37" s="2"/>
       <c r="F37" s="5" t="s">
         <v>117</v>
@@ -3120,24 +3174,24 @@
       <c r="S37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="V37" s="7" t="s">
+      <c r="V37" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AC37" s="7" t="s">
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AC37" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
-    </row>
-    <row r="38" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+    </row>
+    <row r="38" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
         <v>112</v>
       </c>
@@ -3217,7 +3271,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="5:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:34" ht="30" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
         <v>113</v>
       </c>
@@ -3297,7 +3351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="5:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:34" ht="30" x14ac:dyDescent="0.25">
       <c r="E40" s="4" t="s">
         <v>123</v>
       </c>
@@ -3377,7 +3431,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="41" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
         <v>114</v>
       </c>
@@ -3421,7 +3475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:34" ht="60" x14ac:dyDescent="0.25">
       <c r="E42" s="4" t="s">
         <v>115</v>
       </c>
@@ -3465,7 +3519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
         <v>116</v>
       </c>
@@ -3509,27 +3563,27 @@
         <v>1050428</v>
       </c>
     </row>
-    <row r="46" spans="5:34" x14ac:dyDescent="0.3">
-      <c r="E46" s="9" t="s">
+    <row r="46" spans="5:34" x14ac:dyDescent="0.25">
+      <c r="E46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="M46" s="9" t="s">
+      <c r="M46" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="2"/>
       <c r="F47" s="5" t="s">
         <v>117</v>
@@ -3569,7 +3623,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="5:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:34" ht="45" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
         <v>112</v>
       </c>
@@ -3614,7 +3668,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="4" t="s">
         <v>113</v>
       </c>
@@ -3658,7 +3712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E50" s="4" t="s">
         <v>123</v>
       </c>
@@ -3702,7 +3756,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="51" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E51" s="4" t="s">
         <v>114</v>
       </c>
@@ -3746,7 +3800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E52" s="4" t="s">
         <v>115</v>
       </c>
@@ -3790,7 +3844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
         <v>116</v>
       </c>
@@ -3834,27 +3888,27 @@
         <v>1050448</v>
       </c>
     </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E56" s="9" t="s">
+    <row r="56" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E56" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="M56" s="9" t="s">
+      <c r="M56" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
       <c r="F57" s="5" t="s">
         <v>117</v>
@@ -3894,7 +3948,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E58" s="4" t="s">
         <v>112</v>
       </c>
@@ -3938,7 +3992,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E59" s="4" t="s">
         <v>113</v>
       </c>
@@ -3982,7 +4036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E60" s="4" t="s">
         <v>123</v>
       </c>
@@ -4026,7 +4080,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="61" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E61" s="4" t="s">
         <v>114</v>
       </c>
@@ -4070,7 +4124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E62" s="4" t="s">
         <v>115</v>
       </c>
@@ -4114,7 +4168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E63" s="4" t="s">
         <v>116</v>
       </c>
@@ -4160,32 +4214,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="M46:Q46"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="V12:AA12"/>
-    <mergeCell ref="V13:AA13"/>
-    <mergeCell ref="AC6:AH6"/>
-    <mergeCell ref="AC7:AH7"/>
-    <mergeCell ref="AC12:AH12"/>
-    <mergeCell ref="AC13:AH13"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="AC18:AH18"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="AC19:AH19"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AC24:AH24"/>
     <mergeCell ref="V36:AA36"/>
     <mergeCell ref="AC36:AH36"/>
     <mergeCell ref="V37:AA37"/>
@@ -4196,6 +4224,32 @@
     <mergeCell ref="AC30:AH30"/>
     <mergeCell ref="V31:AA31"/>
     <mergeCell ref="AC31:AH31"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="AC18:AH18"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="AC19:AH19"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AC24:AH24"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="V12:AA12"/>
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="AC6:AH6"/>
+    <mergeCell ref="AC7:AH7"/>
+    <mergeCell ref="AC12:AH12"/>
+    <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="M6:S6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4210,25 +4264,25 @@
       <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="9" t="s">
+    <row r="6" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="L6" s="9" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="L6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="5" t="s">
         <v>117</v>
@@ -4268,7 +4322,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>112</v>
       </c>
@@ -4312,7 +4366,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>113</v>
       </c>
@@ -4356,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>123</v>
       </c>
@@ -4400,7 +4454,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
         <v>114</v>
       </c>
@@ -4444,7 +4498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:18" ht="60" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
         <v>115</v>
       </c>
@@ -4488,7 +4542,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>116</v>
       </c>
@@ -4532,23 +4586,23 @@
         <v>1050468</v>
       </c>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D16" s="9" t="s">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="L16" s="9" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="L16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="5" t="s">
         <v>117</v>
@@ -4588,7 +4642,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
         <v>112</v>
       </c>
@@ -4632,7 +4686,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
         <v>113</v>
       </c>
@@ -4676,7 +4730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D20" s="4" t="s">
         <v>123</v>
       </c>
@@ -4720,7 +4774,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
         <v>114</v>
       </c>
@@ -4764,7 +4818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:18" ht="60" x14ac:dyDescent="0.25">
       <c r="D22" s="4" t="s">
         <v>115</v>
       </c>
@@ -4808,7 +4862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
         <v>116</v>
       </c>
@@ -4852,23 +4906,23 @@
         <v>1050480</v>
       </c>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D26" s="9" t="s">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="L26" s="9" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="L26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
       <c r="E27" s="5" t="s">
         <v>117</v>
@@ -4908,7 +4962,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D28" s="4" t="s">
         <v>112</v>
       </c>
@@ -4952,7 +5006,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
         <v>113</v>
       </c>
@@ -4996,7 +5050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D30" s="4" t="s">
         <v>123</v>
       </c>
@@ -5040,7 +5094,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D31" s="4" t="s">
         <v>114</v>
       </c>
@@ -5084,7 +5138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:18" ht="60" x14ac:dyDescent="0.25">
       <c r="D32" s="4" t="s">
         <v>115</v>
       </c>
@@ -5128,7 +5182,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D33" s="4" t="s">
         <v>116</v>
       </c>
@@ -5172,23 +5226,23 @@
         <v>1050508</v>
       </c>
     </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D36" s="9" t="s">
+    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="L36" s="9" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="L36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
       <c r="E37" s="5" t="s">
         <v>117</v>
@@ -5228,7 +5282,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D38" s="4" t="s">
         <v>112</v>
       </c>
@@ -5272,7 +5326,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D39" s="4" t="s">
         <v>113</v>
       </c>
@@ -5316,7 +5370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D40" s="4" t="s">
         <v>123</v>
       </c>
@@ -5360,7 +5414,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="41" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D41" s="4" t="s">
         <v>114</v>
       </c>
@@ -5404,7 +5458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:18" ht="60" x14ac:dyDescent="0.25">
       <c r="D42" s="4" t="s">
         <v>115</v>
       </c>
@@ -5448,7 +5502,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D43" s="4" t="s">
         <v>116</v>
       </c>
@@ -5492,23 +5546,23 @@
         <v>1050564</v>
       </c>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D46" s="9" t="s">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="L46" s="9" t="s">
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="L46" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-    </row>
-    <row r="47" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D47" s="2"/>
       <c r="E47" s="5" t="s">
         <v>117</v>
@@ -5548,7 +5602,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D48" s="4" t="s">
         <v>112</v>
       </c>
@@ -5592,7 +5646,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D49" s="4" t="s">
         <v>113</v>
       </c>
@@ -5636,7 +5690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D50" s="4" t="s">
         <v>123</v>
       </c>
@@ -5680,7 +5734,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="51" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D51" s="4" t="s">
         <v>114</v>
       </c>
@@ -5724,7 +5778,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="52" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:18" ht="60" x14ac:dyDescent="0.25">
       <c r="D52" s="4" t="s">
         <v>115</v>
       </c>
@@ -5768,7 +5822,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="4:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D53" s="4" t="s">
         <v>116</v>
       </c>
@@ -5837,25 +5891,25 @@
       <selection activeCell="F48" sqref="F48:T48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F5" s="9" t="s">
+    <row r="5" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="N5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
       <c r="G6" s="5" t="s">
         <v>117</v>
@@ -5895,7 +5949,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F7" s="4" t="s">
         <v>112</v>
       </c>
@@ -5939,7 +5993,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:20" ht="30" x14ac:dyDescent="0.25">
       <c r="F8" s="4" t="s">
         <v>113</v>
       </c>
@@ -5983,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:20" ht="30" x14ac:dyDescent="0.25">
       <c r="F9" s="4" t="s">
         <v>123</v>
       </c>
@@ -6027,7 +6081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
         <v>114</v>
       </c>
@@ -6071,7 +6125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:20" ht="60" x14ac:dyDescent="0.25">
       <c r="F11" s="4" t="s">
         <v>115</v>
       </c>
@@ -6115,7 +6169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F12" s="4" t="s">
         <v>116</v>
       </c>
@@ -6159,23 +6213,23 @@
         <v>1050480</v>
       </c>
     </row>
-    <row r="15" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F15" s="9" t="s">
+    <row r="15" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="N15" s="9" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="N15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="5" t="s">
         <v>117</v>
@@ -6215,7 +6269,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F17" s="4" t="s">
         <v>112</v>
       </c>
@@ -6259,7 +6313,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:20" ht="30" x14ac:dyDescent="0.25">
       <c r="F18" s="4" t="s">
         <v>113</v>
       </c>
@@ -6303,7 +6357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:20" ht="30" x14ac:dyDescent="0.25">
       <c r="F19" s="4" t="s">
         <v>123</v>
       </c>
@@ -6347,7 +6401,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F20" s="4" t="s">
         <v>114</v>
       </c>
@@ -6391,7 +6445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:20" ht="60" x14ac:dyDescent="0.25">
       <c r="F21" s="4" t="s">
         <v>115</v>
       </c>
@@ -6435,7 +6489,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F22" s="4" t="s">
         <v>116</v>
       </c>
@@ -6479,23 +6533,23 @@
         <v>1050508</v>
       </c>
     </row>
-    <row r="26" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F26" s="9" t="s">
+    <row r="26" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="N26" s="9" t="s">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="N26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
       <c r="G27" s="5" t="s">
         <v>117</v>
@@ -6535,7 +6589,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F28" s="4" t="s">
         <v>112</v>
       </c>
@@ -6579,7 +6633,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:20" ht="30" x14ac:dyDescent="0.25">
       <c r="F29" s="4" t="s">
         <v>113</v>
       </c>
@@ -6623,7 +6677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:20" ht="30" x14ac:dyDescent="0.25">
       <c r="F30" s="4" t="s">
         <v>123</v>
       </c>
@@ -6667,7 +6721,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F31" s="4" t="s">
         <v>114</v>
       </c>
@@ -6711,7 +6765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:20" ht="60" x14ac:dyDescent="0.25">
       <c r="F32" s="4" t="s">
         <v>115</v>
       </c>
@@ -6755,7 +6809,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="33" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F33" s="4" t="s">
         <v>116</v>
       </c>
@@ -6799,23 +6853,23 @@
         <v>1050540</v>
       </c>
     </row>
-    <row r="36" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F36" s="9" t="s">
+    <row r="36" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F36" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="N36" s="9" t="s">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="N36" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-    </row>
-    <row r="37" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F37" s="2"/>
       <c r="G37" s="5" t="s">
         <v>117</v>
@@ -6855,7 +6909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F38" s="4" t="s">
         <v>112</v>
       </c>
@@ -6899,7 +6953,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:20" ht="30" x14ac:dyDescent="0.25">
       <c r="F39" s="4" t="s">
         <v>113</v>
       </c>
@@ -6943,7 +6997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:20" ht="30" x14ac:dyDescent="0.25">
       <c r="F40" s="4" t="s">
         <v>123</v>
       </c>
@@ -6987,7 +7041,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F41" s="4" t="s">
         <v>114</v>
       </c>
@@ -7031,7 +7085,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:20" ht="60" x14ac:dyDescent="0.25">
       <c r="F42" s="4" t="s">
         <v>115</v>
       </c>
@@ -7075,7 +7129,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="43" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F43" s="4" t="s">
         <v>116</v>
       </c>
@@ -7119,23 +7173,23 @@
         <v>1050476</v>
       </c>
     </row>
-    <row r="46" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F46" s="9" t="s">
+    <row r="46" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F46" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="N46" s="9" t="s">
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="N46" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-    </row>
-    <row r="47" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F47" s="2"/>
       <c r="G47" s="5" t="s">
         <v>117</v>
@@ -7175,7 +7229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F48" s="4" t="s">
         <v>112</v>
       </c>
@@ -7219,7 +7273,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:20" ht="30" x14ac:dyDescent="0.25">
       <c r="F49" s="4" t="s">
         <v>113</v>
       </c>
@@ -7263,7 +7317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="6:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:20" ht="30" x14ac:dyDescent="0.25">
       <c r="F50" s="4" t="s">
         <v>123</v>
       </c>
@@ -7307,7 +7361,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F51" s="4" t="s">
         <v>114</v>
       </c>
@@ -7351,7 +7405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:20" ht="60" x14ac:dyDescent="0.25">
       <c r="F52" s="4" t="s">
         <v>115</v>
       </c>
@@ -7395,7 +7449,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="6:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:20" ht="45" x14ac:dyDescent="0.25">
       <c r="F53" s="4" t="s">
         <v>116</v>
       </c>
@@ -7461,50 +7515,53 @@
   <dimension ref="B2:AH48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="21"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="10" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-      <c r="T2" s="9" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+      <c r="T2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AB2" s="10" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AB2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="12"/>
-    </row>
-    <row r="3" spans="2:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="11"/>
+    </row>
+    <row r="3" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
         <v>117</v>
@@ -7582,7 +7639,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>112</v>
       </c>
@@ -7668,43 +7725,43 @@
         <v>19.13</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="T7" s="9" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="T7" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-    </row>
-    <row r="9" spans="2:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+    </row>
+    <row r="9" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>112</v>
       </c>
@@ -7790,7 +7847,7 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>229</v>
       </c>
@@ -7902,7 +7959,7 @@
         <v>0.63428381962864722</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>240</v>
       </c>
@@ -8014,43 +8071,43 @@
         <v>63.428381962864719</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="T15" s="9" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="T15" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-    </row>
-    <row r="17" spans="2:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+    </row>
+    <row r="17" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>112</v>
       </c>
@@ -8136,7 +8193,7 @@
         <v>17.86</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>229</v>
       </c>
@@ -8248,7 +8305,7 @@
         <v>1.0711086226203808</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>240</v>
       </c>
@@ -8358,43 +8415,43 @@
         <v>53.555431131019034</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="T23" s="9" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="T23" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-    </row>
-    <row r="25" spans="2:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+    </row>
+    <row r="25" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>112</v>
       </c>
@@ -8480,7 +8537,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>229</v>
       </c>
@@ -8592,7 +8649,7 @@
         <v>1.2169211195928753</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1">
         <f xml:space="preserve"> (C27 / 4 ) * 100</f>
@@ -8698,43 +8755,43 @@
         <v>30.423027989821882</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="T31" s="9" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="T31" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-    </row>
-    <row r="33" spans="2:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+    </row>
+    <row r="33" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>112</v>
       </c>
@@ -8820,7 +8877,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>229</v>
       </c>
@@ -8932,7 +8989,7 @@
         <v>2.0115667718191377</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1">
         <f xml:space="preserve"> (C35 / 8) * 100</f>
@@ -9038,43 +9095,43 @@
         <v>25.144584647739222</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="T39" s="9" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="T39" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-    </row>
-    <row r="41" spans="2:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+    </row>
+    <row r="41" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>112</v>
       </c>
@@ -9160,7 +9217,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>229</v>
       </c>
@@ -9272,7 +9329,7 @@
         <v>4.1051502145922747</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1">
         <f xml:space="preserve"> (C43 / 16) * 100</f>
@@ -9378,8 +9435,8 @@
         <v>25.657188841201716</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="Y48" t="s">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="Y48" s="21" t="s">
         <v>241</v>
       </c>
     </row>
@@ -9405,6 +9462,1988 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2A026C-3829-4317-AB98-302F09DF377D}">
+  <dimension ref="B2:AN21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN17" sqref="AN17:AN21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
+      <c r="V2" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="24"/>
+    </row>
+    <row r="3" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="27"/>
+    </row>
+    <row r="4" spans="2:40" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z4" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC4" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF4" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN4" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B5" s="30">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="30">
+        <f>C5/C5</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="30">
+        <f>D5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
+        <v>3.48</v>
+      </c>
+      <c r="G5" s="30">
+        <f>F5/F5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="30">
+        <f>G5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="J5" s="30">
+        <f>I5/I5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="30">
+        <f>J5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="30">
+        <v>2.59</v>
+      </c>
+      <c r="M5" s="30">
+        <f>L5/L5</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="30">
+        <f>M5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="30">
+        <v>43.16</v>
+      </c>
+      <c r="P5" s="30">
+        <f>O5/O5</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="30">
+        <f>P5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="30">
+        <v>22.92</v>
+      </c>
+      <c r="S5" s="30">
+        <f>R5/R5</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="30">
+        <f>S5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="V5" s="30">
+        <v>1</v>
+      </c>
+      <c r="W5" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="X5" s="30">
+        <f>W5/W5</f>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="30">
+        <f>X5/V5</f>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>3.45</v>
+      </c>
+      <c r="AA5" s="30">
+        <f>Z5/Z5</f>
+        <v>1</v>
+      </c>
+      <c r="AB5" s="30">
+        <f>AA5/V5</f>
+        <v>1</v>
+      </c>
+      <c r="AC5" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="AD5" s="30">
+        <f>AC5/AC5</f>
+        <v>1</v>
+      </c>
+      <c r="AE5" s="30">
+        <f>AD5/V5</f>
+        <v>1</v>
+      </c>
+      <c r="AF5" s="30">
+        <v>2.54</v>
+      </c>
+      <c r="AG5" s="30">
+        <f>AF5/AF5</f>
+        <v>1</v>
+      </c>
+      <c r="AH5" s="30">
+        <f>AG5/V5</f>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="30">
+        <v>29.8</v>
+      </c>
+      <c r="AJ5" s="30">
+        <f>AI5/AI5</f>
+        <v>1</v>
+      </c>
+      <c r="AK5" s="30">
+        <f>AJ5/V5</f>
+        <v>1</v>
+      </c>
+      <c r="AL5" s="30">
+        <v>21.74</v>
+      </c>
+      <c r="AM5" s="30">
+        <f>AL5/AL5</f>
+        <v>1</v>
+      </c>
+      <c r="AN5" s="34">
+        <f>AM5/V5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B6" s="30">
+        <v>2</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="30">
+        <f>C5/C6</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="30">
+        <f t="shared" ref="E6:E9" si="0">D6/B6</f>
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="30">
+        <v>3.28</v>
+      </c>
+      <c r="G6" s="30">
+        <f>F5/F6</f>
+        <v>1.0609756097560976</v>
+      </c>
+      <c r="H6" s="30">
+        <f t="shared" ref="H6:H9" si="1">G6/B6</f>
+        <v>0.53048780487804881</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="J6" s="30">
+        <f>I5/I6</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="30">
+        <f t="shared" ref="K6:K9" si="2">J6/B6</f>
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="30">
+        <v>2.34</v>
+      </c>
+      <c r="M6" s="30">
+        <f>L5/L6</f>
+        <v>1.1068376068376069</v>
+      </c>
+      <c r="N6" s="30">
+        <f t="shared" ref="N6:N9" si="3">M6/B6</f>
+        <v>0.55341880341880345</v>
+      </c>
+      <c r="O6" s="30">
+        <v>31.33</v>
+      </c>
+      <c r="P6" s="30">
+        <f>O5/O6</f>
+        <v>1.3775933609958506</v>
+      </c>
+      <c r="Q6" s="30">
+        <f t="shared" ref="Q6:Q9" si="4">P6/B6</f>
+        <v>0.68879668049792531</v>
+      </c>
+      <c r="R6" s="30">
+        <v>23.02</v>
+      </c>
+      <c r="S6" s="30">
+        <f>R5/R6</f>
+        <v>0.99565595134665519</v>
+      </c>
+      <c r="T6" s="30">
+        <f t="shared" ref="T6:T9" si="5">S6/B6</f>
+        <v>0.49782797567332759</v>
+      </c>
+      <c r="V6" s="30">
+        <v>2</v>
+      </c>
+      <c r="W6" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="X6" s="30">
+        <f>W5/W6</f>
+        <v>3</v>
+      </c>
+      <c r="Y6" s="30">
+        <f t="shared" ref="Y6:Y9" si="6">X6/V6</f>
+        <v>1.5</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>1.67</v>
+      </c>
+      <c r="AA6" s="30">
+        <f>Z5/Z6</f>
+        <v>2.0658682634730541</v>
+      </c>
+      <c r="AB6" s="30">
+        <f t="shared" ref="AB6:AB9" si="7">AA6/V6</f>
+        <v>1.032934131736527</v>
+      </c>
+      <c r="AC6" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="AD6" s="30">
+        <f>AC5/AC6</f>
+        <v>2</v>
+      </c>
+      <c r="AE6" s="30">
+        <f t="shared" ref="AE6:AE9" si="8">AD6/V6</f>
+        <v>1</v>
+      </c>
+      <c r="AF6" s="30">
+        <v>1.28</v>
+      </c>
+      <c r="AG6" s="30">
+        <f>AF5/AF6</f>
+        <v>1.984375</v>
+      </c>
+      <c r="AH6" s="30">
+        <f t="shared" ref="AH6:AH9" si="9">AG6/V6</f>
+        <v>0.9921875</v>
+      </c>
+      <c r="AI6" s="30">
+        <v>16.07</v>
+      </c>
+      <c r="AJ6" s="30">
+        <f>AI5/AI6</f>
+        <v>1.8543870566272558</v>
+      </c>
+      <c r="AK6" s="30">
+        <f t="shared" ref="AK6:AK9" si="10">AJ6/V6</f>
+        <v>0.92719352831362789</v>
+      </c>
+      <c r="AL6" s="30">
+        <v>12.87</v>
+      </c>
+      <c r="AM6" s="30">
+        <f>AL5/AL6</f>
+        <v>1.6891996891996892</v>
+      </c>
+      <c r="AN6" s="34">
+        <f t="shared" ref="AN6:AN9" si="11">AM6/V6</f>
+        <v>0.84459984459984461</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B7" s="30">
+        <v>4</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="D7" s="30">
+        <f>C5/C7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="30">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2.99</v>
+      </c>
+      <c r="G7" s="30">
+        <f>F5/F7</f>
+        <v>1.1638795986622072</v>
+      </c>
+      <c r="H7" s="30">
+        <f t="shared" si="1"/>
+        <v>0.29096989966555181</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="J7" s="30">
+        <f>I5/I7</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="30">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="L7" s="30">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M7" s="30">
+        <f>L5/L7</f>
+        <v>1.1359649122807018</v>
+      </c>
+      <c r="N7" s="30">
+        <f t="shared" si="3"/>
+        <v>0.28399122807017546</v>
+      </c>
+      <c r="O7" s="30">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="P7" s="30">
+        <f>O5/O7</f>
+        <v>1.1949058693244741</v>
+      </c>
+      <c r="Q7" s="30">
+        <f t="shared" si="4"/>
+        <v>0.29872646733111852</v>
+      </c>
+      <c r="R7" s="30">
+        <v>21.89</v>
+      </c>
+      <c r="S7" s="30">
+        <f>R5/R7</f>
+        <v>1.0470534490634993</v>
+      </c>
+      <c r="T7" s="30">
+        <f t="shared" si="5"/>
+        <v>0.26176336226587482</v>
+      </c>
+      <c r="V7" s="30">
+        <v>4</v>
+      </c>
+      <c r="W7" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="X7" s="30">
+        <f>W5/W7</f>
+        <v>3</v>
+      </c>
+      <c r="Y7" s="30">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>0.98</v>
+      </c>
+      <c r="AA7" s="30">
+        <f>Z5/Z7</f>
+        <v>3.5204081632653064</v>
+      </c>
+      <c r="AB7" s="30">
+        <f t="shared" si="7"/>
+        <v>0.88010204081632659</v>
+      </c>
+      <c r="AC7" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="AD7" s="30">
+        <f>AC5/AC7</f>
+        <v>2</v>
+      </c>
+      <c r="AE7" s="30">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF7" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="AG7" s="30">
+        <f>AF5/AF7</f>
+        <v>3.628571428571429</v>
+      </c>
+      <c r="AH7" s="30">
+        <f t="shared" si="9"/>
+        <v>0.90714285714285725</v>
+      </c>
+      <c r="AI7" s="30">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="AJ7" s="30">
+        <f>AI5/AI7</f>
+        <v>3.1236897274633129</v>
+      </c>
+      <c r="AK7" s="30">
+        <f t="shared" si="10"/>
+        <v>0.78092243186582821</v>
+      </c>
+      <c r="AL7" s="30">
+        <v>7.12</v>
+      </c>
+      <c r="AM7" s="30">
+        <f>AL5/AL7</f>
+        <v>3.0533707865168536</v>
+      </c>
+      <c r="AN7" s="34">
+        <f t="shared" si="11"/>
+        <v>0.76334269662921339</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B8" s="30">
+        <v>8</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="30">
+        <f>C5/C8</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="30">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2.57</v>
+      </c>
+      <c r="G8" s="30">
+        <f>F5/F8</f>
+        <v>1.3540856031128405</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="1"/>
+        <v>0.16926070038910507</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="J8" s="30">
+        <f>I5/I8</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="30">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="L8" s="30">
+        <v>2.29</v>
+      </c>
+      <c r="M8" s="30">
+        <f>L5/L8</f>
+        <v>1.1310043668122269</v>
+      </c>
+      <c r="N8" s="30">
+        <f t="shared" si="3"/>
+        <v>0.14137554585152837</v>
+      </c>
+      <c r="O8" s="30">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="P8" s="30">
+        <f>O5/O8</f>
+        <v>1.0822467402206619</v>
+      </c>
+      <c r="Q8" s="30">
+        <f t="shared" si="4"/>
+        <v>0.13528084252758274</v>
+      </c>
+      <c r="R8" s="30">
+        <v>22.18</v>
+      </c>
+      <c r="S8" s="30">
+        <f>R5/R8</f>
+        <v>1.0333633904418396</v>
+      </c>
+      <c r="T8" s="30">
+        <f t="shared" si="5"/>
+        <v>0.12917042380522994</v>
+      </c>
+      <c r="V8" s="30">
+        <v>8</v>
+      </c>
+      <c r="W8" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="X8" s="30">
+        <f>W5/W8</f>
+        <v>1.5</v>
+      </c>
+      <c r="Y8" s="30">
+        <f t="shared" si="6"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>1.07</v>
+      </c>
+      <c r="AA8" s="30">
+        <f>Z5/Z8</f>
+        <v>3.2242990654205608</v>
+      </c>
+      <c r="AB8" s="30">
+        <f t="shared" si="7"/>
+        <v>0.4030373831775701</v>
+      </c>
+      <c r="AC8" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="AD8" s="30">
+        <f>AC5/AC8</f>
+        <v>0.5</v>
+      </c>
+      <c r="AE8" s="30">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AF8" s="30">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AG8" s="30">
+        <f>AF5/AF8</f>
+        <v>4.4561403508771935</v>
+      </c>
+      <c r="AH8" s="30">
+        <f t="shared" si="9"/>
+        <v>0.55701754385964919</v>
+      </c>
+      <c r="AI8" s="30">
+        <v>9.16</v>
+      </c>
+      <c r="AJ8" s="30">
+        <f>AI5/AI8</f>
+        <v>3.2532751091703056</v>
+      </c>
+      <c r="AK8" s="30">
+        <f t="shared" si="10"/>
+        <v>0.4066593886462882</v>
+      </c>
+      <c r="AL8" s="30">
+        <v>5.38</v>
+      </c>
+      <c r="AM8" s="30">
+        <f>AL5/AL8</f>
+        <v>4.04089219330855</v>
+      </c>
+      <c r="AN8" s="34">
+        <f t="shared" si="11"/>
+        <v>0.50511152416356875</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B9" s="30">
+        <v>16</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="D9" s="30">
+        <f>C5/C9</f>
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="30">
+        <f t="shared" si="0"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="F9" s="30">
+        <v>4.43</v>
+      </c>
+      <c r="G9" s="30">
+        <f>F5/F9</f>
+        <v>0.78555304740406329</v>
+      </c>
+      <c r="H9" s="30">
+        <f t="shared" si="1"/>
+        <v>4.9097065462753955E-2</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="J9" s="30">
+        <f>I5/I9</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="30">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L9" s="30">
+        <v>2.44</v>
+      </c>
+      <c r="M9" s="30">
+        <f>L5/L9</f>
+        <v>1.0614754098360655</v>
+      </c>
+      <c r="N9" s="30">
+        <f t="shared" si="3"/>
+        <v>6.6342213114754092E-2</v>
+      </c>
+      <c r="O9" s="30">
+        <v>36.03</v>
+      </c>
+      <c r="P9" s="30">
+        <f>O5/O9</f>
+        <v>1.1978906466833192</v>
+      </c>
+      <c r="Q9" s="30">
+        <f t="shared" si="4"/>
+        <v>7.4868165417707452E-2</v>
+      </c>
+      <c r="R9" s="30">
+        <v>20.96</v>
+      </c>
+      <c r="S9" s="30">
+        <f>R5/R9</f>
+        <v>1.0935114503816794</v>
+      </c>
+      <c r="T9" s="30">
+        <f t="shared" si="5"/>
+        <v>6.8344465648854963E-2</v>
+      </c>
+      <c r="V9" s="30">
+        <v>16</v>
+      </c>
+      <c r="W9" s="30">
+        <v>0.09</v>
+      </c>
+      <c r="X9" s="30">
+        <f>W5/W9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y9" s="30">
+        <f t="shared" si="6"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>0.64</v>
+      </c>
+      <c r="AA9" s="30">
+        <f>Z5/Z9</f>
+        <v>5.390625</v>
+      </c>
+      <c r="AB9" s="30">
+        <f t="shared" si="7"/>
+        <v>0.3369140625</v>
+      </c>
+      <c r="AC9" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD9" s="30">
+        <f>AC5/AC9</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AE9" s="30">
+        <f t="shared" si="8"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="AF9" s="30">
+        <v>0.48</v>
+      </c>
+      <c r="AG9" s="30">
+        <f>AF5/AF9</f>
+        <v>5.291666666666667</v>
+      </c>
+      <c r="AH9" s="30">
+        <f t="shared" si="9"/>
+        <v>0.33072916666666669</v>
+      </c>
+      <c r="AI9" s="30">
+        <v>11.19</v>
+      </c>
+      <c r="AJ9" s="30">
+        <f>AI5/AI9</f>
+        <v>2.6630920464700627</v>
+      </c>
+      <c r="AK9" s="30">
+        <f t="shared" si="10"/>
+        <v>0.16644325290437892</v>
+      </c>
+      <c r="AL9" s="30">
+        <v>3.92</v>
+      </c>
+      <c r="AM9" s="30">
+        <f>AL5/AL9</f>
+        <v>5.5459183673469381</v>
+      </c>
+      <c r="AN9" s="34">
+        <f t="shared" si="11"/>
+        <v>0.34661989795918363</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+    </row>
+    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+    </row>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+    </row>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="24"/>
+      <c r="V14" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="24"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="27"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="27"/>
+    </row>
+    <row r="16" spans="2:40" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="W16" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="X16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z16" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC16" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF16" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI16" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL16" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN16" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B17" s="30">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="30">
+        <f>C17/C17</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="30">
+        <f>D17/B17</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="30">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="G17" s="30">
+        <f>F17/F17</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="30">
+        <f>G17/B17</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0.09</v>
+      </c>
+      <c r="J17" s="30">
+        <f>I17/I17</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="30">
+        <f>J17/B17</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="30">
+        <v>3.62</v>
+      </c>
+      <c r="M17" s="30">
+        <f>L17/L17</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="30">
+        <f>M17/B17</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="30">
+        <v>44.1</v>
+      </c>
+      <c r="P17" s="30">
+        <f>O17/O17</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="30">
+        <f>P17/B17</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="30">
+        <v>32.53</v>
+      </c>
+      <c r="S17" s="30">
+        <f>R17/R17</f>
+        <v>1</v>
+      </c>
+      <c r="T17" s="30">
+        <f>S17/B17</f>
+        <v>1</v>
+      </c>
+      <c r="V17" s="30">
+        <v>1</v>
+      </c>
+      <c r="W17" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="X17" s="30">
+        <f>W17/W17</f>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="30">
+        <f>X17/V17</f>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="30">
+        <v>4.76</v>
+      </c>
+      <c r="AA17" s="30">
+        <f>Z17/Z17</f>
+        <v>1</v>
+      </c>
+      <c r="AB17" s="30">
+        <f>AA17/V17</f>
+        <v>1</v>
+      </c>
+      <c r="AC17" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="AD17" s="30">
+        <f>AC17/AC17</f>
+        <v>1</v>
+      </c>
+      <c r="AE17" s="30">
+        <f>AD17/V17</f>
+        <v>1</v>
+      </c>
+      <c r="AF17" s="30">
+        <v>3.39</v>
+      </c>
+      <c r="AG17" s="30">
+        <f>AF17/AF17</f>
+        <v>1</v>
+      </c>
+      <c r="AH17" s="30">
+        <f>AG17/V17</f>
+        <v>1</v>
+      </c>
+      <c r="AI17" s="30">
+        <v>42.87</v>
+      </c>
+      <c r="AJ17" s="30">
+        <f>AI17/AI17</f>
+        <v>1</v>
+      </c>
+      <c r="AK17" s="30">
+        <f>AJ17/V17</f>
+        <v>1</v>
+      </c>
+      <c r="AL17" s="30">
+        <v>30.16</v>
+      </c>
+      <c r="AM17" s="30">
+        <f>AL17/AL17</f>
+        <v>1</v>
+      </c>
+      <c r="AN17" s="34">
+        <f>AM17/V17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B18" s="30">
+        <v>2</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="D18" s="30">
+        <f>C17/C18</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E18" s="30">
+        <f t="shared" ref="E18:E21" si="12">D18/B18</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F18" s="30">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G18" s="30">
+        <f>F17/F18</f>
+        <v>1.0265848670756645</v>
+      </c>
+      <c r="H18" s="30">
+        <f t="shared" ref="H18:H21" si="13">G18/B18</f>
+        <v>0.51329243353783227</v>
+      </c>
+      <c r="I18" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="J18" s="30">
+        <f>I17/I18</f>
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="30">
+        <f t="shared" ref="K18:K21" si="14">J18/B18</f>
+        <v>0.75</v>
+      </c>
+      <c r="L18" s="30">
+        <v>2.67</v>
+      </c>
+      <c r="M18" s="30">
+        <f>L17/L18</f>
+        <v>1.3558052434456929</v>
+      </c>
+      <c r="N18" s="30">
+        <f t="shared" ref="N18:N21" si="15">M18/B18</f>
+        <v>0.67790262172284643</v>
+      </c>
+      <c r="O18" s="30">
+        <v>22.92</v>
+      </c>
+      <c r="P18" s="30">
+        <f>O17/O18</f>
+        <v>1.9240837696335078</v>
+      </c>
+      <c r="Q18" s="30">
+        <f t="shared" ref="Q18:Q21" si="16">P18/B18</f>
+        <v>0.9620418848167539</v>
+      </c>
+      <c r="R18" s="30">
+        <v>19.45</v>
+      </c>
+      <c r="S18" s="30">
+        <f>R17/R18</f>
+        <v>1.6724935732647817</v>
+      </c>
+      <c r="T18" s="30">
+        <f t="shared" ref="T18:T21" si="17">S18/B18</f>
+        <v>0.83624678663239083</v>
+      </c>
+      <c r="V18" s="30">
+        <v>2</v>
+      </c>
+      <c r="W18" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="X18" s="30">
+        <f>W17/W18</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="Y18" s="30">
+        <f t="shared" ref="Y18:Y21" si="18">X18/V18</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>3.36</v>
+      </c>
+      <c r="AA18" s="30">
+        <f>Z17/Z18</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="AB18" s="30">
+        <f t="shared" ref="AB18:AB21" si="19">AA18/V18</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC18" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="AD18" s="30">
+        <f>AC17/AC18</f>
+        <v>1.5</v>
+      </c>
+      <c r="AE18" s="30">
+        <f t="shared" ref="AE18:AE21" si="20">AD18/V18</f>
+        <v>0.75</v>
+      </c>
+      <c r="AF18" s="30">
+        <v>2.02</v>
+      </c>
+      <c r="AG18" s="30">
+        <f>AF17/AF18</f>
+        <v>1.6782178217821782</v>
+      </c>
+      <c r="AH18" s="30">
+        <f t="shared" ref="AH18:AH21" si="21">AG18/V18</f>
+        <v>0.83910891089108908</v>
+      </c>
+      <c r="AI18" s="30">
+        <v>21.8</v>
+      </c>
+      <c r="AJ18" s="30">
+        <f>AI17/AI18</f>
+        <v>1.9665137614678898</v>
+      </c>
+      <c r="AK18" s="30">
+        <f t="shared" ref="AK18:AK21" si="22">AJ18/V18</f>
+        <v>0.9832568807339449</v>
+      </c>
+      <c r="AL18" s="30">
+        <v>17.86</v>
+      </c>
+      <c r="AM18" s="30">
+        <f>AL17/AL18</f>
+        <v>1.6886898096304592</v>
+      </c>
+      <c r="AN18" s="34">
+        <f t="shared" ref="AN18:AN21" si="23">AM18/V18</f>
+        <v>0.84434490481522961</v>
+      </c>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B19" s="30">
+        <v>4</v>
+      </c>
+      <c r="C19" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="30">
+        <f>C17/C19</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" si="12"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F19" s="30">
+        <v>1.53</v>
+      </c>
+      <c r="G19" s="30">
+        <f>F17/F19</f>
+        <v>3.2810457516339864</v>
+      </c>
+      <c r="H19" s="30">
+        <f t="shared" si="13"/>
+        <v>0.82026143790849659</v>
+      </c>
+      <c r="I19" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="J19" s="30">
+        <f>I17/I19</f>
+        <v>1.125</v>
+      </c>
+      <c r="K19" s="30">
+        <f t="shared" si="14"/>
+        <v>0.28125</v>
+      </c>
+      <c r="L19" s="30">
+        <v>1.51</v>
+      </c>
+      <c r="M19" s="30">
+        <f>L17/L19</f>
+        <v>2.3973509933774837</v>
+      </c>
+      <c r="N19" s="30">
+        <f t="shared" si="15"/>
+        <v>0.59933774834437092</v>
+      </c>
+      <c r="O19" s="30">
+        <v>14.5</v>
+      </c>
+      <c r="P19" s="30">
+        <f>O17/O19</f>
+        <v>3.0413793103448277</v>
+      </c>
+      <c r="Q19" s="30">
+        <f t="shared" si="16"/>
+        <v>0.76034482758620692</v>
+      </c>
+      <c r="R19" s="30">
+        <v>18.62</v>
+      </c>
+      <c r="S19" s="30">
+        <f>R17/R19</f>
+        <v>1.7470461868958109</v>
+      </c>
+      <c r="T19" s="30">
+        <f t="shared" si="17"/>
+        <v>0.43676154672395273</v>
+      </c>
+      <c r="V19" s="30">
+        <v>4</v>
+      </c>
+      <c r="W19" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="X19" s="30">
+        <f>W17/W19</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="Y19" s="30">
+        <f t="shared" si="18"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="Z19" s="30">
+        <v>1.57</v>
+      </c>
+      <c r="AA19" s="30">
+        <f>Z17/Z19</f>
+        <v>3.0318471337579616</v>
+      </c>
+      <c r="AB19" s="30">
+        <f t="shared" si="19"/>
+        <v>0.75796178343949039</v>
+      </c>
+      <c r="AC19" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="AD19" s="30">
+        <f>AC17/AC19</f>
+        <v>3</v>
+      </c>
+      <c r="AE19" s="30">
+        <f t="shared" si="20"/>
+        <v>0.75</v>
+      </c>
+      <c r="AF19" s="30">
+        <v>1.31</v>
+      </c>
+      <c r="AG19" s="30">
+        <f>AF17/AF19</f>
+        <v>2.5877862595419847</v>
+      </c>
+      <c r="AH19" s="30">
+        <f t="shared" si="21"/>
+        <v>0.64694656488549618</v>
+      </c>
+      <c r="AI19" s="30">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="AJ19" s="30">
+        <f>AI17/AI19</f>
+        <v>2.3477546549835702</v>
+      </c>
+      <c r="AK19" s="30">
+        <f t="shared" si="22"/>
+        <v>0.58693866374589254</v>
+      </c>
+      <c r="AL19" s="30">
+        <v>15.72</v>
+      </c>
+      <c r="AM19" s="30">
+        <f>AL17/AL19</f>
+        <v>1.9185750636132315</v>
+      </c>
+      <c r="AN19" s="34">
+        <f t="shared" si="23"/>
+        <v>0.47964376590330787</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B20" s="30">
+        <v>8</v>
+      </c>
+      <c r="C20" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="D20" s="30">
+        <f>C17/C20</f>
+        <v>1.25</v>
+      </c>
+      <c r="E20" s="30">
+        <f t="shared" si="12"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F20" s="30">
+        <v>1.01</v>
+      </c>
+      <c r="G20" s="30">
+        <f>F17/F20</f>
+        <v>4.9702970297029703</v>
+      </c>
+      <c r="H20" s="30">
+        <f t="shared" si="13"/>
+        <v>0.62128712871287128</v>
+      </c>
+      <c r="I20" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="J20" s="30">
+        <f>I17/I20</f>
+        <v>3</v>
+      </c>
+      <c r="K20" s="30">
+        <f t="shared" si="14"/>
+        <v>0.375</v>
+      </c>
+      <c r="L20" s="30">
+        <v>0.64</v>
+      </c>
+      <c r="M20" s="30">
+        <f>L17/L20</f>
+        <v>5.65625</v>
+      </c>
+      <c r="N20" s="30">
+        <f t="shared" si="15"/>
+        <v>0.70703125</v>
+      </c>
+      <c r="O20" s="30">
+        <v>19.77</v>
+      </c>
+      <c r="P20" s="30">
+        <f>O17/O20</f>
+        <v>2.2306525037936269</v>
+      </c>
+      <c r="Q20" s="30">
+        <f t="shared" si="16"/>
+        <v>0.27883156297420336</v>
+      </c>
+      <c r="R20" s="30">
+        <v>7.06</v>
+      </c>
+      <c r="S20" s="30">
+        <f>R17/R20</f>
+        <v>4.6076487252124654</v>
+      </c>
+      <c r="T20" s="30">
+        <f t="shared" si="17"/>
+        <v>0.57595609065155817</v>
+      </c>
+      <c r="V20" s="30">
+        <v>8</v>
+      </c>
+      <c r="W20" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="X20" s="30">
+        <f>W17/W20</f>
+        <v>2</v>
+      </c>
+      <c r="Y20" s="30">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+      <c r="Z20" s="30">
+        <v>0.93</v>
+      </c>
+      <c r="AA20" s="30">
+        <f>Z17/Z20</f>
+        <v>5.118279569892473</v>
+      </c>
+      <c r="AB20" s="30">
+        <f t="shared" si="19"/>
+        <v>0.63978494623655913</v>
+      </c>
+      <c r="AC20" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="AD20" s="30">
+        <f>AC17/AC20</f>
+        <v>2</v>
+      </c>
+      <c r="AE20" s="30">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="AF20" s="30">
+        <v>0.64</v>
+      </c>
+      <c r="AG20" s="30">
+        <f>AF17/AF20</f>
+        <v>5.296875</v>
+      </c>
+      <c r="AH20" s="30">
+        <f t="shared" si="21"/>
+        <v>0.662109375</v>
+      </c>
+      <c r="AI20" s="30">
+        <v>10.95</v>
+      </c>
+      <c r="AJ20" s="30">
+        <f>AI17/AI20</f>
+        <v>3.9150684931506849</v>
+      </c>
+      <c r="AK20" s="30">
+        <f t="shared" si="22"/>
+        <v>0.48938356164383562</v>
+      </c>
+      <c r="AL20" s="30">
+        <v>9.51</v>
+      </c>
+      <c r="AM20" s="30">
+        <f>AL17/AL20</f>
+        <v>3.1713985278654051</v>
+      </c>
+      <c r="AN20" s="34">
+        <f t="shared" si="23"/>
+        <v>0.39642481598317564</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B21" s="30">
+        <v>16</v>
+      </c>
+      <c r="C21" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="D21" s="30">
+        <f>C17/C21</f>
+        <v>0.625</v>
+      </c>
+      <c r="E21" s="30">
+        <f t="shared" si="12"/>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0.79</v>
+      </c>
+      <c r="G21" s="30">
+        <f>F17/F21</f>
+        <v>6.3544303797468347</v>
+      </c>
+      <c r="H21" s="30">
+        <f t="shared" si="13"/>
+        <v>0.39715189873417717</v>
+      </c>
+      <c r="I21" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="J21" s="30">
+        <f>I17/I21</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="K21" s="30">
+        <f t="shared" si="14"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="L21" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="M21" s="30">
+        <f>L17/L21</f>
+        <v>4.8266666666666671</v>
+      </c>
+      <c r="N21" s="30">
+        <f t="shared" si="15"/>
+        <v>0.30166666666666669</v>
+      </c>
+      <c r="O21" s="30">
+        <v>15.7</v>
+      </c>
+      <c r="P21" s="30">
+        <f>O17/O21</f>
+        <v>2.8089171974522293</v>
+      </c>
+      <c r="Q21" s="30">
+        <f t="shared" si="16"/>
+        <v>0.17555732484076433</v>
+      </c>
+      <c r="R21" s="30">
+        <v>5.36</v>
+      </c>
+      <c r="S21" s="30">
+        <f>R17/R21</f>
+        <v>6.0690298507462686</v>
+      </c>
+      <c r="T21" s="30">
+        <f t="shared" si="17"/>
+        <v>0.37931436567164178</v>
+      </c>
+      <c r="V21" s="30">
+        <v>16</v>
+      </c>
+      <c r="W21" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="X21" s="30">
+        <f>W17/W21</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="Y21" s="30">
+        <f t="shared" si="18"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="Z21" s="30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA21" s="30">
+        <f>Z17/Z21</f>
+        <v>8.6545454545454543</v>
+      </c>
+      <c r="AB21" s="30">
+        <f t="shared" si="19"/>
+        <v>0.54090909090909089</v>
+      </c>
+      <c r="AC21" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="AD21" s="30">
+        <f>AC17/AC21</f>
+        <v>1.5</v>
+      </c>
+      <c r="AE21" s="30">
+        <f t="shared" si="20"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="AF21" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="AG21" s="30">
+        <f>AF17/AF21</f>
+        <v>4.9130434782608701</v>
+      </c>
+      <c r="AH21" s="30">
+        <f t="shared" si="21"/>
+        <v>0.30706521739130438</v>
+      </c>
+      <c r="AI21" s="30">
+        <v>5.12</v>
+      </c>
+      <c r="AJ21" s="30">
+        <f>AI17/AI21</f>
+        <v>8.373046875</v>
+      </c>
+      <c r="AK21" s="30">
+        <f t="shared" si="22"/>
+        <v>0.5233154296875</v>
+      </c>
+      <c r="AL21" s="30">
+        <v>4.66</v>
+      </c>
+      <c r="AM21" s="30">
+        <f>AL17/AL21</f>
+        <v>6.4721030042918457</v>
+      </c>
+      <c r="AN21" s="34">
+        <f t="shared" si="23"/>
+        <v>0.40450643776824036</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:T3"/>
+    <mergeCell ref="B14:T15"/>
+    <mergeCell ref="V2:AN3"/>
+    <mergeCell ref="V14:AN15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B532B7-47C1-4A60-9826-1DFF4CC7E590}">
   <dimension ref="E4:S51"/>
   <sheetViews>
@@ -9412,27 +11451,27 @@
       <selection activeCell="N46" sqref="N46:S46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E4" s="9" t="s">
+    <row r="4" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="M4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E5" s="3"/>
       <c r="F5" s="5" t="s">
         <v>117</v>
@@ -9472,7 +11511,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E6" s="4" t="s">
         <v>112</v>
       </c>
@@ -9516,7 +11555,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E7" s="4" t="s">
         <v>113</v>
       </c>
@@ -9560,7 +11599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
         <v>123</v>
       </c>
@@ -9604,7 +11643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
         <v>114</v>
       </c>
@@ -9648,7 +11687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E10" s="4" t="s">
         <v>115</v>
       </c>
@@ -9692,7 +11731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
         <v>116</v>
       </c>
@@ -9736,23 +11775,23 @@
         <v>1050568</v>
       </c>
     </row>
-    <row r="14" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E14" s="9" t="s">
+    <row r="14" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="M14" s="9" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="M14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
       <c r="F15" s="5" t="s">
         <v>117</v>
@@ -9792,7 +11831,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E16" s="4" t="s">
         <v>112</v>
       </c>
@@ -9836,7 +11875,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="4" t="s">
         <v>113</v>
       </c>
@@ -9880,7 +11919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E18" s="4" t="s">
         <v>123</v>
       </c>
@@ -9924,7 +11963,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E19" s="4" t="s">
         <v>114</v>
       </c>
@@ -9968,7 +12007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E20" s="4" t="s">
         <v>115</v>
       </c>
@@ -10012,7 +12051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E21" s="4" t="s">
         <v>116</v>
       </c>
@@ -10056,23 +12095,23 @@
         <v>1050560</v>
       </c>
     </row>
-    <row r="24" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E24" s="9" t="s">
+    <row r="24" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="M24" s="9" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="M24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-    </row>
-    <row r="25" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="F25" s="5" t="s">
         <v>117</v>
@@ -10112,7 +12151,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E26" s="4" t="s">
         <v>112</v>
       </c>
@@ -10156,7 +12195,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="4" t="s">
         <v>113</v>
       </c>
@@ -10200,7 +12239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E28" s="4" t="s">
         <v>123</v>
       </c>
@@ -10244,7 +12283,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
         <v>114</v>
       </c>
@@ -10288,7 +12327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>115</v>
       </c>
@@ -10332,7 +12371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
         <v>116</v>
       </c>
@@ -10376,23 +12415,23 @@
         <v>1050448</v>
       </c>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E34" s="9" t="s">
+    <row r="34" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="M34" s="9" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="M34" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-    </row>
-    <row r="35" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+    </row>
+    <row r="35" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
       <c r="F35" s="5" t="s">
         <v>117</v>
@@ -10432,7 +12471,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
         <v>112</v>
       </c>
@@ -10476,7 +12515,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E37" s="4" t="s">
         <v>113</v>
       </c>
@@ -10520,7 +12559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
         <v>123</v>
       </c>
@@ -10564,7 +12603,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
         <v>114</v>
       </c>
@@ -10608,7 +12647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E40" s="4" t="s">
         <v>115</v>
       </c>
@@ -10652,7 +12691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
         <v>116</v>
       </c>
@@ -10696,23 +12735,23 @@
         <v>1050540</v>
       </c>
     </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E44" s="9" t="s">
+    <row r="44" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E44" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="M44" s="9" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="M44" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-    </row>
-    <row r="45" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
       <c r="F45" s="5" t="s">
         <v>117</v>
@@ -10752,7 +12791,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E46" s="4" t="s">
         <v>112</v>
       </c>
@@ -10796,7 +12835,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
         <v>113</v>
       </c>
@@ -10840,7 +12879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
         <v>123</v>
       </c>
@@ -10884,7 +12923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E49" s="4" t="s">
         <v>114</v>
       </c>
@@ -10928,7 +12967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E50" s="4" t="s">
         <v>115</v>
       </c>
@@ -10972,7 +13011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E51" s="4" t="s">
         <v>116</v>
       </c>
@@ -11033,7 +13072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E38AC8-18EF-4239-9D43-57445D69E4E3}">
   <dimension ref="E4:S51"/>
   <sheetViews>
@@ -11041,25 +13080,25 @@
       <selection activeCell="F46" sqref="F46:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E4" s="9" t="s">
+    <row r="4" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="M4" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
       <c r="F5" s="5" t="s">
         <v>117</v>
@@ -11099,7 +13138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E6" s="4" t="s">
         <v>112</v>
       </c>
@@ -11143,7 +13182,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E7" s="4" t="s">
         <v>113</v>
       </c>
@@ -11187,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
         <v>123</v>
       </c>
@@ -11231,7 +13270,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
         <v>114</v>
       </c>
@@ -11275,7 +13314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E10" s="4" t="s">
         <v>115</v>
       </c>
@@ -11319,7 +13358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
         <v>116</v>
       </c>
@@ -11363,23 +13402,23 @@
         <v>1050576</v>
       </c>
     </row>
-    <row r="14" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E14" s="9" t="s">
+    <row r="14" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="M14" s="9" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="M14" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
       <c r="F15" s="5" t="s">
         <v>117</v>
@@ -11419,7 +13458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E16" s="4" t="s">
         <v>112</v>
       </c>
@@ -11463,7 +13502,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="4" t="s">
         <v>113</v>
       </c>
@@ -11507,7 +13546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E18" s="4" t="s">
         <v>123</v>
       </c>
@@ -11551,7 +13590,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E19" s="4" t="s">
         <v>114</v>
       </c>
@@ -11595,7 +13634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E20" s="4" t="s">
         <v>115</v>
       </c>
@@ -11639,7 +13678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E21" s="4" t="s">
         <v>116</v>
       </c>
@@ -11683,23 +13722,23 @@
         <v>1050592</v>
       </c>
     </row>
-    <row r="24" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E24" s="9" t="s">
+    <row r="24" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="M24" s="9" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="M24" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-    </row>
-    <row r="25" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="F25" s="5" t="s">
         <v>117</v>
@@ -11739,7 +13778,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E26" s="4" t="s">
         <v>112</v>
       </c>
@@ -11783,7 +13822,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="4" t="s">
         <v>113</v>
       </c>
@@ -11827,7 +13866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E28" s="4" t="s">
         <v>123</v>
       </c>
@@ -11871,7 +13910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
         <v>114</v>
       </c>
@@ -11915,7 +13954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>115</v>
       </c>
@@ -11959,7 +13998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
         <v>116</v>
       </c>
@@ -12003,23 +14042,23 @@
         <v>1050488</v>
       </c>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E34" s="9" t="s">
+    <row r="34" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E34" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="M34" s="9" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="M34" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-    </row>
-    <row r="35" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+    </row>
+    <row r="35" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
       <c r="F35" s="5" t="s">
         <v>117</v>
@@ -12059,7 +14098,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
         <v>112</v>
       </c>
@@ -12103,7 +14142,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E37" s="4" t="s">
         <v>113</v>
       </c>
@@ -12147,7 +14186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
         <v>123</v>
       </c>
@@ -12191,7 +14230,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
         <v>114</v>
       </c>
@@ -12235,7 +14274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E40" s="4" t="s">
         <v>115</v>
       </c>
@@ -12279,7 +14318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
         <v>116</v>
       </c>
@@ -12323,23 +14362,23 @@
         <v>1050648</v>
       </c>
     </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E44" s="9" t="s">
+    <row r="44" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E44" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="M44" s="9" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="M44" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-    </row>
-    <row r="45" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
       <c r="F45" s="5" t="s">
         <v>117</v>
@@ -12379,7 +14418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E46" s="4" t="s">
         <v>112</v>
       </c>
@@ -12423,7 +14462,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
         <v>113</v>
       </c>
@@ -12467,7 +14506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="5:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
         <v>123</v>
       </c>
@@ -12511,7 +14550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E49" s="4" t="s">
         <v>114</v>
       </c>
@@ -12555,7 +14594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E50" s="4" t="s">
         <v>115</v>
       </c>
@@ -12599,7 +14638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="5:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E51" s="4" t="s">
         <v>116</v>
       </c>
@@ -12660,101 +14699,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE67F91-2D5D-4022-A047-3ECD2D658B23}">
   <dimension ref="B2:AO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
-      <c r="W2" s="17" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
+      <c r="W2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="19"/>
-    </row>
-    <row r="3" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="21"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="21"/>
-    </row>
-    <row r="4" spans="2:41" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="16"/>
+    </row>
+    <row r="3" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="19"/>
+    </row>
+    <row r="4" spans="2:41" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>242</v>
       </c>
@@ -12870,7 +14909,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -12878,67 +14917,67 @@
         <v>0.13</v>
       </c>
       <c r="D5" s="1">
-        <f xml:space="preserve"> 0.03/C5</f>
-        <v>0.23076923076923075</v>
+        <f>(C5/C5)*100</f>
+        <v>100</v>
       </c>
       <c r="E5" s="1">
         <f xml:space="preserve"> (D5 / B5) * 100</f>
-        <v>23.076923076923077</v>
+        <v>10000</v>
       </c>
       <c r="F5" s="1">
         <v>0.75</v>
       </c>
       <c r="G5" s="1">
-        <f xml:space="preserve"> 0.03/F5</f>
-        <v>0.04</v>
+        <f>(F5/F5)*100</f>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
-        <f xml:space="preserve"> (G5 / E5) * 100</f>
-        <v>0.17333333333333334</v>
+        <f xml:space="preserve"> (G5 / B5) * 100</f>
+        <v>10000</v>
       </c>
       <c r="I5" s="1">
         <v>0.04</v>
       </c>
       <c r="J5" s="1">
-        <f xml:space="preserve"> 0.03/I5</f>
-        <v>0.75</v>
+        <f>(I5/I5)*100</f>
+        <v>100</v>
       </c>
       <c r="K5" s="1">
-        <f xml:space="preserve"> (J5 / H5) * 100</f>
-        <v>432.69230769230768</v>
+        <f>(J5 / B5) *100</f>
+        <v>10000</v>
       </c>
       <c r="L5" s="1">
         <v>0.84</v>
       </c>
       <c r="M5" s="1">
-        <f xml:space="preserve"> 0.03/L5</f>
-        <v>3.5714285714285712E-2</v>
+        <f>(L5/L5)*100</f>
+        <v>100</v>
       </c>
       <c r="N5" s="1">
-        <f xml:space="preserve"> (M5 / K5) * 100</f>
-        <v>8.2539682539682531E-3</v>
+        <f>(M5/B5)*100</f>
+        <v>10000</v>
       </c>
       <c r="O5" s="1">
         <v>29.79</v>
       </c>
       <c r="P5" s="1">
-        <f xml:space="preserve"> 0.03/O5</f>
-        <v>1.0070493454179255E-3</v>
+        <f>(O5/O5)*100</f>
+        <v>100</v>
       </c>
       <c r="Q5" s="1">
-        <f xml:space="preserve"> (P5 / N5) * 100</f>
-        <v>12.200790146409483</v>
+        <f>(P5/B5)*100</f>
+        <v>10000</v>
       </c>
       <c r="R5" s="1">
         <v>22.14</v>
       </c>
       <c r="S5" s="1">
-        <f xml:space="preserve"> 0.03/R5</f>
-        <v>1.3550135501355014E-3</v>
+        <f>(R5/R5)*100</f>
+        <v>100</v>
       </c>
       <c r="T5" s="1">
-        <f xml:space="preserve"> (S5 / Q5) * 100</f>
-        <v>1.1105949154729643E-2</v>
+        <f>(S5/B5)*100</f>
+        <v>10000</v>
       </c>
       <c r="W5" s="1">
         <v>1</v>
@@ -12947,70 +14986,70 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y5" s="1">
-        <f xml:space="preserve"> 0.03/X5</f>
-        <v>0.42857142857142849</v>
+        <f>(X5/X5)*100</f>
+        <v>100</v>
       </c>
       <c r="Z5" s="1">
-        <f xml:space="preserve"> (Y5 / W5) * 100</f>
-        <v>42.857142857142847</v>
+        <f>(Y5/W5)*100</f>
+        <v>10000</v>
       </c>
       <c r="AA5" s="1">
         <v>0.88</v>
       </c>
       <c r="AB5" s="1">
-        <f xml:space="preserve"> 0.03/AA5</f>
-        <v>3.4090909090909088E-2</v>
+        <f>(AA5/AA5)*100</f>
+        <v>100</v>
       </c>
       <c r="AC5" s="1">
-        <f xml:space="preserve"> (AB5 / Z5) * 100</f>
-        <v>7.9545454545454558E-2</v>
+        <f>(AB5/W5)*100</f>
+        <v>10000</v>
       </c>
       <c r="AD5" s="1">
         <v>0.03</v>
       </c>
       <c r="AE5" s="1">
-        <f xml:space="preserve"> 0.03/AD5</f>
-        <v>1</v>
+        <f>(AD5/AD5)*100</f>
+        <v>100</v>
       </c>
       <c r="AF5" s="1">
-        <f xml:space="preserve"> (AE5 / AC5) * 100</f>
-        <v>1257.1428571428569</v>
+        <f>(AE5/W5)*100</f>
+        <v>10000</v>
       </c>
       <c r="AG5" s="1">
         <v>0.93</v>
       </c>
       <c r="AH5" s="1">
-        <f xml:space="preserve"> 0.03/AG5</f>
-        <v>3.2258064516129031E-2</v>
+        <f>(AG5/AG5)*100</f>
+        <v>100</v>
       </c>
       <c r="AI5" s="1">
-        <f xml:space="preserve"> (AH5 / AF5) * 100</f>
-        <v>2.5659824046920824E-3</v>
+        <f>(AH5/W5)*100</f>
+        <v>10000</v>
       </c>
       <c r="AJ5" s="1">
         <v>7.52</v>
       </c>
       <c r="AK5" s="1">
-        <f xml:space="preserve"> 0.03/AJ5</f>
-        <v>3.9893617021276593E-3</v>
+        <f>(AJ5/AJ5)*100</f>
+        <v>100</v>
       </c>
       <c r="AL5" s="1">
-        <f xml:space="preserve"> (AK5 / AI5) * 100</f>
-        <v>155.47112462006078</v>
+        <f>(AK5/W5)*100</f>
+        <v>10000</v>
       </c>
       <c r="AM5" s="1">
         <v>8.0399999999999991</v>
       </c>
       <c r="AN5" s="1">
-        <f xml:space="preserve"> 0.03/AM5</f>
-        <v>3.7313432835820899E-3</v>
+        <f>(AM5/AM5)*100</f>
+        <v>100</v>
       </c>
       <c r="AO5" s="1">
-        <f xml:space="preserve"> (AN5 / AL5) * 100</f>
-        <v>2.4000233436920972E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
+        <f>(AN5/W5)*100</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -13018,67 +15057,67 @@
         <v>0.09</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D9" si="0" xml:space="preserve"> 0.03/C6</f>
-        <v>0.33333333333333331</v>
+        <f>(C5/C6)*100</f>
+        <v>144.44444444444446</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E9" si="1" xml:space="preserve"> (D6 / B6) * 100</f>
-        <v>16.666666666666664</v>
+        <f xml:space="preserve"> (D6 / B6) * 100</f>
+        <v>7222.2222222222226</v>
       </c>
       <c r="F6" s="1">
         <v>0.45</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G9" si="2" xml:space="preserve"> 0.03/F6</f>
-        <v>6.6666666666666666E-2</v>
+        <f>(F5/F6)*100</f>
+        <v>166.66666666666666</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H9" si="3" xml:space="preserve"> (G6 / E6) * 100</f>
-        <v>0.4</v>
+        <f t="shared" ref="H6:H9" si="0" xml:space="preserve"> (G6 / B6) * 100</f>
+        <v>8333.3333333333321</v>
       </c>
       <c r="I6" s="1">
         <v>0.06</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ref="J6:J9" si="4" xml:space="preserve"> 0.03/I6</f>
-        <v>0.5</v>
+        <f>(I5/I6)*100</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:K9" si="5" xml:space="preserve"> (J6 / H6) * 100</f>
-        <v>125</v>
+        <f t="shared" ref="K6:K9" si="1">(J6 / B6) *100</f>
+        <v>3333.3333333333335</v>
       </c>
       <c r="L6" s="1">
         <v>0.47</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" ref="M6:M9" si="6" xml:space="preserve"> 0.03/L6</f>
-        <v>6.3829787234042548E-2</v>
+        <f>(L5/L6)*100</f>
+        <v>178.72340425531917</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:N9" si="7" xml:space="preserve"> (M6 / K6) * 100</f>
-        <v>5.106382978723404E-2</v>
+        <f t="shared" ref="N6:N9" si="2">(M6/B6)*100</f>
+        <v>8936.1702127659591</v>
       </c>
       <c r="O6" s="1">
         <v>22.58</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P9" si="8" xml:space="preserve"> 0.03/O6</f>
-        <v>1.3286093888396813E-3</v>
+        <f>(O5/O6)*100</f>
+        <v>131.93091231178033</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" ref="Q6:Q9" si="9" xml:space="preserve"> (P6 / N6) * 100</f>
-        <v>2.6018600531443759</v>
+        <f t="shared" ref="Q6:Q9" si="3">(P6/B6)*100</f>
+        <v>6596.545615589017</v>
       </c>
       <c r="R6" s="1">
         <v>12.88</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" ref="S6:S9" si="10" xml:space="preserve"> 0.03/R6</f>
-        <v>2.3291925465838506E-3</v>
+        <f>(R5/R6)*100</f>
+        <v>171.89440993788818</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" ref="T6:T9" si="11" xml:space="preserve"> (S6 / Q6) * 100</f>
-        <v>8.9520285449980155E-2</v>
+        <f t="shared" ref="T6:T9" si="4">(S6/B6)*100</f>
+        <v>8594.7204968944097</v>
       </c>
       <c r="W6" s="1">
         <v>2</v>
@@ -13087,138 +15126,138 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" ref="Y6:Y9" si="12" xml:space="preserve"> 0.03/X6</f>
-        <v>0.42857142857142849</v>
+        <f>(X5/X6)*100</f>
+        <v>100</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" ref="Z6:Z9" si="13" xml:space="preserve"> (Y6 / W6) * 100</f>
-        <v>21.428571428571423</v>
+        <f t="shared" ref="Z6:Z9" si="5">(Y6/W6)*100</f>
+        <v>5000</v>
       </c>
       <c r="AA6" s="1">
         <v>0.88</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" ref="AB6:AB9" si="14" xml:space="preserve"> 0.03/AA6</f>
-        <v>3.4090909090909088E-2</v>
+        <f>(AA5/AA6)*100</f>
+        <v>100</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" ref="AC6:AC9" si="15" xml:space="preserve"> (AB6 / Z6) * 100</f>
-        <v>0.15909090909090912</v>
+        <f t="shared" ref="AC6:AC9" si="6">(AB6/W6)*100</f>
+        <v>5000</v>
       </c>
       <c r="AD6" s="1">
         <v>0.05</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" ref="AE6:AE9" si="16" xml:space="preserve"> 0.03/AD6</f>
-        <v>0.6</v>
+        <f>(AD5/AD6)*100</f>
+        <v>60</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" ref="AF6:AF9" si="17" xml:space="preserve"> (AE6 / AC6) * 100</f>
-        <v>377.14285714285711</v>
+        <f t="shared" ref="AF6:AF9" si="7">(AE6/W6)*100</f>
+        <v>3000</v>
       </c>
       <c r="AG6" s="1">
         <v>0.95</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" ref="AH6:AH9" si="18" xml:space="preserve"> 0.03/AG6</f>
-        <v>3.1578947368421054E-2</v>
+        <f>(AG5/AG6)*100</f>
+        <v>97.894736842105274</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" ref="AI6:AI9" si="19" xml:space="preserve"> (AH6 / AF6) * 100</f>
-        <v>8.3732057416267946E-3</v>
+        <f t="shared" ref="AI6:AI9" si="8">(AH6/W6)*100</f>
+        <v>4894.7368421052633</v>
       </c>
       <c r="AJ6" s="1">
         <v>7.41</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" ref="AK6:AK9" si="20" xml:space="preserve"> 0.03/AJ6</f>
-        <v>4.048582995951417E-3</v>
+        <f>(AJ5/AJ6)*100</f>
+        <v>101.48448043184885</v>
       </c>
       <c r="AL6" s="1">
-        <f t="shared" ref="AL6:AL9" si="21" xml:space="preserve"> (AK6 / AI6) * 100</f>
-        <v>48.35164835164835</v>
+        <f t="shared" ref="AL6:AL9" si="9">(AK6/W6)*100</f>
+        <v>5074.224021592443</v>
       </c>
       <c r="AM6" s="1">
         <v>7.89</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" ref="AN6:AN9" si="22" xml:space="preserve"> 0.03/AM6</f>
-        <v>3.8022813688212928E-3</v>
+        <f>(AM5/AM6)*100</f>
+        <v>101.90114068441063</v>
       </c>
       <c r="AO6" s="1">
-        <f t="shared" ref="AO6:AO9" si="23" xml:space="preserve"> (AN6 / AL6) * 100</f>
-        <v>7.8638091946076748E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AO6:AO9" si="10">(AN6/W6)*100</f>
+        <v>5095.0570342205319</v>
+      </c>
+    </row>
+    <row r="7" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C7" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <f>(C5/C7)*100</f>
+        <v>13000</v>
+      </c>
+      <c r="E7" s="1">
+        <f xml:space="preserve"> (D7 / B7) * 100</f>
+        <v>325000</v>
       </c>
       <c r="F7" s="1">
         <v>0.25</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="H7" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f>(F5/F7)*100</f>
+        <v>300</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <f>(I5/I7)*100</f>
+        <v>4000</v>
+      </c>
+      <c r="K7" s="1">
+        <f>(J7 / B7) *100</f>
+        <v>100000</v>
       </c>
       <c r="L7" s="1">
         <v>0.23</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="6"/>
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="N7" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f>(L5/L7)*100</f>
+        <v>365.21739130434781</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>9130.434782608696</v>
       </c>
       <c r="O7" s="1">
         <v>17.190000000000001</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="8"/>
-        <v>1.745200698080279E-3</v>
-      </c>
-      <c r="Q7" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <f>(O5/O7)*100</f>
+        <v>173.29842931937171</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>4332.4607329842929</v>
       </c>
       <c r="R7" s="1">
         <v>5.45</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="10"/>
-        <v>5.5045871559633022E-3</v>
-      </c>
-      <c r="T7" s="1" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <f>(R5/R7)*100</f>
+        <v>406.23853211009174</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="4"/>
+        <v>10155.963302752294</v>
       </c>
       <c r="W7" s="1">
         <v>4</v>
@@ -13227,70 +15266,70 @@
         <v>0.01</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f>(X5/X7)*100</f>
+        <v>700.00000000000011</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="13"/>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>17500.000000000004</v>
       </c>
       <c r="AA7" s="1">
         <v>0.79</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="14"/>
-        <v>3.7974683544303792E-2</v>
+        <f>(AA5/AA7)*100</f>
+        <v>111.39240506329114</v>
       </c>
       <c r="AC7" s="1">
-        <f t="shared" si="15"/>
-        <v>5.0632911392405056E-2</v>
+        <f t="shared" si="6"/>
+        <v>2784.8101265822784</v>
       </c>
       <c r="AD7" s="1">
         <v>0.01</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f>(AD5/AD7)*100</f>
+        <v>300</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="17"/>
-        <v>5925.0000000000009</v>
+        <f t="shared" si="7"/>
+        <v>7500</v>
       </c>
       <c r="AG7" s="1">
         <v>0.83</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="18"/>
-        <v>3.614457831325301E-2</v>
+        <f>(AG5/AG7)*100</f>
+        <v>112.04819277108436</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="19"/>
-        <v>6.1003507701692841E-4</v>
+        <f t="shared" si="8"/>
+        <v>2801.204819277109</v>
       </c>
       <c r="AJ7" s="1">
         <v>6.54</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="20"/>
-        <v>4.5871559633027517E-3</v>
+        <f>(AJ5/AJ7)*100</f>
+        <v>114.98470948012232</v>
       </c>
       <c r="AL7" s="1">
-        <f t="shared" si="21"/>
-        <v>751.94954128440361</v>
+        <f t="shared" si="9"/>
+        <v>2874.6177370030582</v>
       </c>
       <c r="AM7" s="1">
         <v>6.94</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" si="22"/>
-        <v>4.3227665706051868E-3</v>
+        <f>(AM5/AM7)*100</f>
+        <v>115.85014409221901</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" si="23"/>
-        <v>5.7487455384592394E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2896.2536023054754</v>
+      </c>
+    </row>
+    <row r="8" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>8</v>
       </c>
@@ -13298,67 +15337,67 @@
         <v>0.1</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f>(C5/C8)*100</f>
+        <v>130</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
+        <f xml:space="preserve"> (D8 / B8) * 100</f>
+        <v>1625</v>
       </c>
       <c r="F8" s="1">
         <v>0.27</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <f>(F5/F8)*100</f>
+        <v>277.77777777777777</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9629629629629628</v>
+        <f t="shared" si="0"/>
+        <v>3472.2222222222222</v>
       </c>
       <c r="I8" s="1">
         <v>0.12</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
+        <f>(I5/I8)*100</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="5"/>
-        <v>8.4375</v>
+        <f t="shared" si="1"/>
+        <v>416.66666666666669</v>
       </c>
       <c r="L8" s="1">
         <v>0.3</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
+        <f>(L5/L8)*100</f>
+        <v>280</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="7"/>
-        <v>1.1851851851851853</v>
+        <f t="shared" si="2"/>
+        <v>3500</v>
       </c>
       <c r="O8" s="1">
         <v>14.51</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="8"/>
-        <v>2.0675396278428669E-3</v>
+        <f>(O5/O8)*100</f>
+        <v>205.30668504479669</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="9"/>
-        <v>0.17444865609924187</v>
+        <f t="shared" si="3"/>
+        <v>2566.3335630599586</v>
       </c>
       <c r="R8" s="1">
         <v>3.83</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="10"/>
-        <v>7.832898172323759E-3</v>
+        <f>(R5/R8)*100</f>
+        <v>578.06788511749346</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="11"/>
-        <v>4.4900879992263807</v>
+        <f t="shared" si="4"/>
+        <v>7225.8485639686678</v>
       </c>
       <c r="W8" s="1">
         <v>8</v>
@@ -13367,313 +15406,297 @@
         <v>0.09</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="12"/>
-        <v>0.33333333333333331</v>
+        <f>(X5/X8)*100</f>
+        <v>77.777777777777786</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="13"/>
-        <v>4.1666666666666661</v>
+        <f t="shared" si="5"/>
+        <v>972.22222222222229</v>
       </c>
       <c r="AA8" s="1">
         <v>1.01</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" si="14"/>
-        <v>2.9702970297029702E-2</v>
+        <f>(AA5/AA8)*100</f>
+        <v>87.128712871287135</v>
       </c>
       <c r="AC8" s="1">
-        <f t="shared" si="15"/>
-        <v>0.71287128712871295</v>
+        <f t="shared" si="6"/>
+        <v>1089.1089108910892</v>
       </c>
       <c r="AD8" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="16"/>
-        <v>0.42857142857142849</v>
+        <f>(AD5/AD8)*100</f>
+        <v>42.857142857142847</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="17"/>
-        <v>60.119047619047606</v>
+        <f t="shared" si="7"/>
+        <v>535.71428571428555</v>
       </c>
       <c r="AG8" s="1">
         <v>0.98</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="18"/>
-        <v>3.0612244897959183E-2</v>
+        <f>(AG5/AG8)*100</f>
+        <v>94.897959183673478</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="19"/>
-        <v>5.0919377652050929E-2</v>
+        <f t="shared" si="8"/>
+        <v>1186.2244897959185</v>
       </c>
       <c r="AJ8" s="1">
         <v>6.5</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="20"/>
-        <v>4.6153846153846149E-3</v>
+        <f>(AJ5/AJ8)*100</f>
+        <v>115.69230769230769</v>
       </c>
       <c r="AL8" s="1">
-        <f t="shared" si="21"/>
-        <v>9.0641025641025621</v>
+        <f t="shared" si="9"/>
+        <v>1446.1538461538462</v>
       </c>
       <c r="AM8" s="1">
         <v>6.07</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" si="22"/>
-        <v>4.9423393739703456E-3</v>
+        <f>(AM5/AM8)*100</f>
+        <v>132.45469522240526</v>
       </c>
       <c r="AO8" s="1">
-        <f t="shared" si="23"/>
-        <v>5.4526516431356011E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B9" s="16">
+        <f t="shared" si="10"/>
+        <v>1655.6836902800658</v>
+      </c>
+    </row>
+    <row r="9" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>0.03</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>(C5/C9)*100</f>
+        <v>433.33333333333337</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
+        <f xml:space="preserve"> (D9 / B9) * 100</f>
+        <v>2708.3333333333335</v>
       </c>
       <c r="F9" s="1">
         <v>0.17</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1764705882352941</v>
+        <f>(F5/F9)*100</f>
+        <v>441.17647058823525</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>2.8235294117647056</v>
+        <f t="shared" si="0"/>
+        <v>2757.3529411764703</v>
       </c>
       <c r="I9" s="1">
         <v>0.03</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>(I5/I9)*100</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="5"/>
-        <v>35.416666666666671</v>
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
       </c>
       <c r="L9" s="1">
         <v>0.17</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="6"/>
-        <v>0.1764705882352941</v>
+        <f>(L5/L9)*100</f>
+        <v>494.11764705882348</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="7"/>
-        <v>0.49826989619377149</v>
+        <f t="shared" si="2"/>
+        <v>3088.2352941176468</v>
       </c>
       <c r="O9" s="1">
         <v>12.31</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="8"/>
-        <v>2.4370430544272946E-3</v>
+        <f>(O5/O9)*100</f>
+        <v>241.99837530463037</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="9"/>
-        <v>0.489101001895478</v>
+        <f t="shared" si="3"/>
+        <v>1512.4898456539399</v>
       </c>
       <c r="R9" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="10"/>
-        <v>1.3043478260869566E-2</v>
+        <f>(R5/R9)*100</f>
+        <v>962.60869565217411</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="11"/>
-        <v>2.666827140063186</v>
-      </c>
-      <c r="W9" s="16">
+        <f t="shared" si="4"/>
+        <v>6016.3043478260879</v>
+      </c>
+      <c r="W9" s="1">
         <v>16</v>
       </c>
       <c r="X9" s="1">
         <v>0.04</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="12"/>
-        <v>0.75</v>
+        <f>(X5/X9)*100</f>
+        <v>175.00000000000003</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="13"/>
-        <v>4.6875</v>
+        <f t="shared" si="5"/>
+        <v>1093.7500000000002</v>
       </c>
       <c r="AA9" s="1">
         <v>0.76</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="14"/>
-        <v>3.9473684210526314E-2</v>
+        <f>(AA5/AA9)*100</f>
+        <v>115.78947368421053</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="15"/>
-        <v>0.84210526315789469</v>
+        <f t="shared" si="6"/>
+        <v>723.68421052631584</v>
       </c>
       <c r="AD9" s="1">
         <v>0.03</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>(AD5/AD9)*100</f>
+        <v>100</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="17"/>
-        <v>118.75</v>
+        <f t="shared" si="7"/>
+        <v>625</v>
       </c>
       <c r="AG9" s="1">
         <v>0.81</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="18"/>
-        <v>3.7037037037037035E-2</v>
+        <f>(AG5/AG9)*100</f>
+        <v>114.81481481481481</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="19"/>
-        <v>3.1189083820662763E-2</v>
+        <f t="shared" si="8"/>
+        <v>717.59259259259261</v>
       </c>
       <c r="AJ9" s="1">
         <v>6.83</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="20"/>
-        <v>4.3923865300146414E-3</v>
+        <f>(AJ5/AJ9)*100</f>
+        <v>110.10248901903368</v>
       </c>
       <c r="AL9" s="1">
-        <f t="shared" si="21"/>
-        <v>14.083089311859446</v>
+        <f t="shared" si="9"/>
+        <v>688.14055636896057</v>
       </c>
       <c r="AM9" s="1">
         <v>7.14</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" si="22"/>
-        <v>4.2016806722689074E-3</v>
+        <f>(AM5/AM9)*100</f>
+        <v>112.60504201680672</v>
       </c>
       <c r="AO9" s="1">
-        <f t="shared" si="23"/>
-        <v>2.9834935923687207E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-    </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+        <f t="shared" si="10"/>
+        <v>703.78151260504205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="19"/>
-      <c r="W11" s="17" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="16"/>
+      <c r="W11" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="19"/>
-    </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="21"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="21"/>
-    </row>
-    <row r="13" spans="2:41" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="16"/>
+    </row>
+    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="19"/>
+    </row>
+    <row r="13" spans="2:41" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>242</v>
       </c>
@@ -13789,7 +15812,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>1</v>
       </c>
@@ -13797,139 +15820,139 @@
         <v>0.03</v>
       </c>
       <c r="D14" s="1">
-        <f xml:space="preserve"> 0.03/C14</f>
-        <v>1</v>
+        <f>(C14/C14)*100</f>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
         <f xml:space="preserve"> (D14 / B14) * 100</f>
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F14" s="1">
         <v>3.37</v>
       </c>
       <c r="G14" s="1">
-        <f xml:space="preserve"> 0.03/F14</f>
-        <v>8.9020771513353102E-3</v>
+        <f>(F14/F14)*100</f>
+        <v>100</v>
       </c>
       <c r="H14" s="1">
-        <f xml:space="preserve"> (G14 / E14) * 100</f>
-        <v>8.9020771513353102E-3</v>
+        <f xml:space="preserve"> (G14 / B14) * 100</f>
+        <v>10000</v>
       </c>
       <c r="I14" s="1">
         <v>0.02</v>
       </c>
       <c r="J14" s="1">
-        <f xml:space="preserve"> 0.03/I14</f>
-        <v>1.5</v>
+        <f>(I14/I14)*100</f>
+        <v>100</v>
       </c>
       <c r="K14" s="1">
-        <f xml:space="preserve"> (J14 / H14) * 100</f>
-        <v>16850.000000000004</v>
+        <f>(J14 / B14) *100</f>
+        <v>10000</v>
       </c>
       <c r="L14" s="1">
         <v>1.88</v>
       </c>
       <c r="M14" s="1">
-        <f xml:space="preserve"> 0.03/L14</f>
-        <v>1.5957446808510637E-2</v>
+        <f>(L14/L14)*100</f>
+        <v>100</v>
       </c>
       <c r="N14" s="1">
-        <f xml:space="preserve"> (M14 / K14) * 100</f>
-        <v>9.4702948418460739E-5</v>
+        <f>(M14/B14)*100</f>
+        <v>10000</v>
       </c>
       <c r="O14" s="1">
         <v>6.52</v>
       </c>
       <c r="P14" s="1">
-        <f xml:space="preserve"> 0.03/O14</f>
-        <v>4.601226993865031E-3</v>
+        <f>(O14/O14)*100</f>
+        <v>100</v>
       </c>
       <c r="Q14" s="1">
-        <f xml:space="preserve"> (P14 / N14) * 100</f>
-        <v>4858.5889570552163</v>
+        <f>(P14/B14)*100</f>
+        <v>10000</v>
       </c>
       <c r="R14" s="1">
         <v>6.88</v>
       </c>
       <c r="S14" s="1">
-        <f xml:space="preserve"> 0.03/R14</f>
-        <v>4.3604651162790697E-3</v>
+        <f>(R14/R14)*100</f>
+        <v>100</v>
       </c>
       <c r="T14" s="1">
-        <f xml:space="preserve"> (S14 / Q14) * 100</f>
-        <v>8.9747561582611041E-5</v>
+        <f>(S14/B14)*100</f>
+        <v>10000</v>
       </c>
       <c r="W14" s="1">
         <v>1</v>
       </c>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1" t="e">
-        <f xml:space="preserve"> 0.03/X14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z14" s="1" t="e">
-        <f xml:space="preserve"> (Y14 / W14) * 100</f>
-        <v>#DIV/0!</v>
+      <c r="X14" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>(X14/X14)*100</f>
+        <v>100</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>(Y14/W14)*100</f>
+        <v>10000</v>
       </c>
       <c r="AA14" s="1">
         <v>0.64</v>
       </c>
       <c r="AB14" s="1">
-        <f xml:space="preserve"> 0.03/AA14</f>
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AC14" s="1" t="e">
-        <f xml:space="preserve"> (AB14 / Z14) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1" t="e">
-        <f xml:space="preserve"> 0.03/AD14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF14" s="1" t="e">
-        <f xml:space="preserve"> (AE14 / AC14) * 100</f>
-        <v>#DIV/0!</v>
+        <f>(AA14/AA14)*100</f>
+        <v>100</v>
+      </c>
+      <c r="AC14" s="1">
+        <f>(AB14/W14)*100</f>
+        <v>10000</v>
+      </c>
+      <c r="AD14" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="AE14" s="1">
+        <f>(AD14/AD14)*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF14" s="1">
+        <f>(AE14/W14)*100</f>
+        <v>10000</v>
       </c>
       <c r="AG14" s="1">
         <v>0.67</v>
       </c>
       <c r="AH14" s="1">
-        <f xml:space="preserve"> 0.03/AG14</f>
-        <v>4.4776119402985072E-2</v>
-      </c>
-      <c r="AI14" s="1" t="e">
-        <f xml:space="preserve"> (AH14 / AF14) * 100</f>
-        <v>#DIV/0!</v>
+        <f>(AG14/AG14)*100</f>
+        <v>100</v>
+      </c>
+      <c r="AI14" s="1">
+        <f>(AH14/W14)*100</f>
+        <v>10000</v>
       </c>
       <c r="AJ14" s="1">
         <v>7.66</v>
       </c>
       <c r="AK14" s="1">
-        <f xml:space="preserve"> 0.03/AJ14</f>
-        <v>3.9164490861618795E-3</v>
-      </c>
-      <c r="AL14" s="1" t="e">
-        <f xml:space="preserve"> (AK14 / AI14) * 100</f>
-        <v>#DIV/0!</v>
+        <f>(AJ14/AJ14)*100</f>
+        <v>100</v>
+      </c>
+      <c r="AL14" s="1">
+        <f>(AK14/W14)*100</f>
+        <v>10000</v>
       </c>
       <c r="AM14" s="1">
         <v>8.0399999999999991</v>
       </c>
       <c r="AN14" s="1">
-        <f xml:space="preserve"> 0.03/AM14</f>
-        <v>3.7313432835820899E-3</v>
-      </c>
-      <c r="AO14" s="1" t="e">
-        <f xml:space="preserve"> (AN14 / AL14) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
+        <f>(AM14/AM14)*100</f>
+        <v>100</v>
+      </c>
+      <c r="AO14" s="1">
+        <f>(AN14/W14)*100</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -13937,67 +15960,67 @@
         <v>0.02</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D18" si="24" xml:space="preserve"> 0.03/C15</f>
-        <v>1.5</v>
+        <f>(C14/C15)*100</f>
+        <v>150</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E18" si="25" xml:space="preserve"> (D15 / B15) * 100</f>
-        <v>75</v>
+        <f t="shared" ref="E15:E18" si="11" xml:space="preserve"> (D15 / B15) * 100</f>
+        <v>7500</v>
       </c>
       <c r="F15" s="1">
         <v>1.52</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15:G18" si="26" xml:space="preserve"> 0.03/F15</f>
-        <v>1.9736842105263157E-2</v>
+        <f>(F14/F15)*100</f>
+        <v>221.71052631578948</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ref="H15:H18" si="27" xml:space="preserve"> (G15 / E15) * 100</f>
-        <v>2.6315789473684209E-2</v>
+        <f t="shared" ref="H15:H18" si="12" xml:space="preserve"> (G15 / B15) * 100</f>
+        <v>11085.526315789473</v>
       </c>
       <c r="I15" s="1">
         <v>0.01</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ref="J15:J18" si="28" xml:space="preserve"> 0.03/I15</f>
-        <v>3</v>
+        <f>(I14/I15)*100</f>
+        <v>200</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" ref="K15:K18" si="29" xml:space="preserve"> (J15 / H15) * 100</f>
-        <v>11400</v>
+        <f t="shared" ref="K15:K18" si="13">(J15 / B15) *100</f>
+        <v>10000</v>
       </c>
       <c r="L15" s="1">
         <v>1.1399999999999999</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" ref="M15:M18" si="30" xml:space="preserve"> 0.03/L15</f>
-        <v>2.6315789473684213E-2</v>
+        <f>(L14/L15)*100</f>
+        <v>164.91228070175438</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" ref="N15:N18" si="31" xml:space="preserve"> (M15 / K15) * 100</f>
-        <v>2.3084025854108958E-4</v>
+        <f t="shared" ref="N15:N18" si="14">(M15/B15)*100</f>
+        <v>8245.6140350877195</v>
       </c>
       <c r="O15" s="1">
         <v>5.2</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" ref="P15:P18" si="32" xml:space="preserve"> 0.03/O15</f>
-        <v>5.7692307692307687E-3</v>
+        <f>(O14/O15)*100</f>
+        <v>125.38461538461536</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" ref="Q15:Q18" si="33" xml:space="preserve"> (P15 / N15) * 100</f>
-        <v>2499.2307692307686</v>
+        <f t="shared" ref="Q15:Q18" si="15">(P15/B15)*100</f>
+        <v>6269.2307692307677</v>
       </c>
       <c r="R15" s="1">
         <v>4.9400000000000004</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" ref="S15:S18" si="34" xml:space="preserve"> 0.03/R15</f>
-        <v>6.0728744939271247E-3</v>
+        <f>(R14/R15)*100</f>
+        <v>139.27125506072872</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" ref="T15:T18" si="35" xml:space="preserve"> (S15 / Q15) * 100</f>
-        <v>2.4298974583272589E-4</v>
+        <f t="shared" ref="T15:T18" si="16">(S15/B15)*100</f>
+        <v>6963.5627530364363</v>
       </c>
       <c r="W15" s="1">
         <v>2</v>
@@ -14006,70 +16029,70 @@
         <v>0.01</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" ref="Y15:Y18" si="36" xml:space="preserve"> 0.03/X15</f>
-        <v>3</v>
+        <f>(X14/X15)*100</f>
+        <v>10</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" ref="Z15:Z18" si="37" xml:space="preserve"> (Y15 / W15) * 100</f>
-        <v>150</v>
+        <f t="shared" ref="Z15:Z18" si="17">(Y15/W15)*100</f>
+        <v>500</v>
       </c>
       <c r="AA15" s="1">
         <v>0.74</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" ref="AB15:AB18" si="38" xml:space="preserve"> 0.03/AA15</f>
-        <v>4.0540540540540543E-2</v>
+        <f>(AA14/AA15)*100</f>
+        <v>86.486486486486484</v>
       </c>
       <c r="AC15" s="1">
-        <f t="shared" ref="AC15:AC18" si="39" xml:space="preserve"> (AB15 / Z15) * 100</f>
-        <v>2.7027027027027029E-2</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE15" s="1" t="e">
-        <f t="shared" ref="AE15:AE18" si="40" xml:space="preserve"> 0.03/AD15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF15" s="1" t="e">
-        <f t="shared" ref="AF15:AF18" si="41" xml:space="preserve"> (AE15 / AC15) * 100</f>
-        <v>#VALUE!</v>
+        <f t="shared" ref="AC15:AC18" si="18">(AB15/W15)*100</f>
+        <v>4324.3243243243242</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AE15" s="1">
+        <f>(AD14/AD15)*100</f>
+        <v>10</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" ref="AF15:AF18" si="19">(AE15/W15)*100</f>
+        <v>500</v>
       </c>
       <c r="AG15" s="1">
         <v>0.84</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" ref="AH15:AH18" si="42" xml:space="preserve"> 0.03/AG15</f>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="AI15" s="1" t="e">
-        <f t="shared" ref="AI15:AI18" si="43" xml:space="preserve"> (AH15 / AF15) * 100</f>
-        <v>#VALUE!</v>
+        <f>(AG14/AG15)*100</f>
+        <v>79.761904761904773</v>
+      </c>
+      <c r="AI15" s="1">
+        <f t="shared" ref="AI15:AI18" si="20">(AH15/W15)*100</f>
+        <v>3988.0952380952385</v>
       </c>
       <c r="AJ15" s="1">
         <v>7.57</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" ref="AK15:AK18" si="44" xml:space="preserve"> 0.03/AJ15</f>
-        <v>3.9630118890356669E-3</v>
-      </c>
-      <c r="AL15" s="1" t="e">
-        <f t="shared" ref="AL15:AL18" si="45" xml:space="preserve"> (AK15 / AI15) * 100</f>
-        <v>#VALUE!</v>
+        <f>(AJ14/AJ15)*100</f>
+        <v>101.18890356671071</v>
+      </c>
+      <c r="AL15" s="1">
+        <f t="shared" ref="AL15:AL18" si="21">(AK15/W15)*100</f>
+        <v>5059.4451783355353</v>
       </c>
       <c r="AM15" s="1">
         <v>7.95</v>
       </c>
       <c r="AN15" s="1">
-        <f t="shared" ref="AN15:AN18" si="46" xml:space="preserve"> 0.03/AM15</f>
-        <v>3.773584905660377E-3</v>
-      </c>
-      <c r="AO15" s="1" t="e">
-        <f t="shared" ref="AO15:AO18" si="47" xml:space="preserve"> (AN15 / AL15) * 100</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
+        <f>(AM14/AM15)*100</f>
+        <v>101.13207547169809</v>
+      </c>
+      <c r="AO15" s="1">
+        <f t="shared" ref="AO15:AO18" si="22">(AN15/W15)*100</f>
+        <v>5056.603773584904</v>
+      </c>
+    </row>
+    <row r="16" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>4</v>
       </c>
@@ -14077,67 +16100,67 @@
         <v>0.15</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="24"/>
-        <v>0.2</v>
+        <f>(C14/C16)*100</f>
+        <v>20</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="25"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>500</v>
       </c>
       <c r="F16" s="1">
         <v>1.02</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="26"/>
-        <v>2.9411764705882353E-2</v>
+        <f>(F14/F16)*100</f>
+        <v>330.39215686274514</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="27"/>
-        <v>0.58823529411764708</v>
+        <f t="shared" si="12"/>
+        <v>8259.8039215686276</v>
       </c>
       <c r="I16" s="1">
         <v>0.08</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="28"/>
-        <v>0.375</v>
+        <f>(I14/I16)*100</f>
+        <v>25</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="29"/>
-        <v>63.749999999999993</v>
+        <f t="shared" si="13"/>
+        <v>625</v>
       </c>
       <c r="L16" s="1">
         <v>0.91</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="30"/>
-        <v>3.2967032967032968E-2</v>
+        <f>(L14/L16)*100</f>
+        <v>206.59340659340657</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="31"/>
-        <v>5.1712992889463488E-2</v>
+        <f t="shared" si="14"/>
+        <v>5164.8351648351645</v>
       </c>
       <c r="O16" s="1">
         <v>2.71</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="32"/>
-        <v>1.107011070110701E-2</v>
+        <f>(O14/O16)*100</f>
+        <v>240.59040590405903</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="33"/>
-        <v>21.406826568265679</v>
+        <f t="shared" si="15"/>
+        <v>6014.7601476014752</v>
       </c>
       <c r="R16" s="1">
         <v>2.8</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="34"/>
-        <v>1.0714285714285714E-2</v>
+        <f>(R14/R16)*100</f>
+        <v>245.71428571428572</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="35"/>
-        <v>5.005078954658787E-2</v>
+        <f t="shared" si="16"/>
+        <v>6142.8571428571431</v>
       </c>
       <c r="W16" s="1">
         <v>4</v>
@@ -14146,70 +16169,70 @@
         <v>0.04</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="36"/>
-        <v>0.75</v>
+        <f>(X14/X16)*100</f>
+        <v>2.5</v>
       </c>
       <c r="Z16" s="1">
-        <f t="shared" si="37"/>
-        <v>18.75</v>
+        <f t="shared" si="17"/>
+        <v>62.5</v>
       </c>
       <c r="AA16" s="1">
         <v>0.9</v>
       </c>
       <c r="AB16" s="1">
-        <f t="shared" si="38"/>
-        <v>3.3333333333333333E-2</v>
+        <f>(AA14/AA16)*100</f>
+        <v>71.111111111111114</v>
       </c>
       <c r="AC16" s="1">
-        <f t="shared" si="39"/>
-        <v>0.17777777777777776</v>
+        <f t="shared" si="18"/>
+        <v>1777.7777777777778</v>
       </c>
       <c r="AD16" s="1">
         <v>0.06</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="40"/>
-        <v>0.5</v>
+        <f>(AD14/AD16)*100</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="41"/>
-        <v>281.25000000000006</v>
+        <f t="shared" si="19"/>
+        <v>41.666666666666671</v>
       </c>
       <c r="AG16" s="1">
         <v>0.9</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="42"/>
-        <v>3.3333333333333333E-2</v>
+        <f>(AG14/AG16)*100</f>
+        <v>74.444444444444443</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="43"/>
-        <v>1.185185185185185E-2</v>
+        <f t="shared" si="20"/>
+        <v>1861.1111111111111</v>
       </c>
       <c r="AJ16" s="1">
         <v>7.05</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="44"/>
-        <v>4.2553191489361703E-3</v>
+        <f>(AJ14/AJ16)*100</f>
+        <v>108.65248226950355</v>
       </c>
       <c r="AL16" s="1">
-        <f t="shared" si="45"/>
-        <v>35.904255319148945</v>
+        <f t="shared" si="21"/>
+        <v>2716.3120567375886</v>
       </c>
       <c r="AM16" s="1">
         <v>7.49</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" si="46"/>
-        <v>4.0053404539385842E-3</v>
+        <f>(AM14/AM16)*100</f>
+        <v>107.34312416555404</v>
       </c>
       <c r="AO16" s="1">
-        <f t="shared" si="47"/>
-        <v>1.1155614893932646E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2683.5781041388509</v>
+      </c>
+    </row>
+    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>8</v>
       </c>
@@ -14217,67 +16240,67 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="24"/>
-        <v>0.21428571428571425</v>
+        <f>(C14/C17)*100</f>
+        <v>21.428571428571423</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="25"/>
-        <v>2.6785714285714279</v>
+        <f t="shared" si="11"/>
+        <v>267.85714285714278</v>
       </c>
       <c r="F17" s="1">
         <v>0.78</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="26"/>
-        <v>3.8461538461538457E-2</v>
+        <f>(F14/F17)*100</f>
+        <v>432.05128205128204</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="27"/>
-        <v>1.4358974358974361</v>
+        <f t="shared" si="12"/>
+        <v>5400.6410256410254</v>
       </c>
       <c r="I17" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="28"/>
-        <v>0.21428571428571425</v>
+        <f>(I14/I17)*100</f>
+        <v>14.285714285714285</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="29"/>
-        <v>14.923469387755098</v>
+        <f t="shared" si="13"/>
+        <v>178.57142857142856</v>
       </c>
       <c r="L17" s="1">
         <v>0.57999999999999996</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="30"/>
-        <v>5.1724137931034482E-2</v>
+        <f>(L14/L17)*100</f>
+        <v>324.13793103448279</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="31"/>
-        <v>0.34659593280282947</v>
+        <f t="shared" si="14"/>
+        <v>4051.7241379310349</v>
       </c>
       <c r="O17" s="1">
         <v>11.33</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="32"/>
-        <v>2.6478375992939097E-3</v>
+        <f>(O14/O17)*100</f>
+        <v>57.546337157987637</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="33"/>
-        <v>0.76395518489831915</v>
+        <f t="shared" si="15"/>
+        <v>719.32921447484546</v>
       </c>
       <c r="R17" s="1">
         <v>1.66</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="34"/>
-        <v>1.8072289156626505E-2</v>
+        <f>(R14/R17)*100</f>
+        <v>414.45783132530119</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="35"/>
-        <v>2.3656216377446131</v>
+        <f t="shared" si="16"/>
+        <v>5180.7228915662645</v>
       </c>
       <c r="W17" s="1">
         <v>8</v>
@@ -14286,207 +16309,207 @@
         <v>0.1</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="36"/>
-        <v>0.3</v>
+        <f>(X14/X17)*100</f>
+        <v>1</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" si="37"/>
-        <v>3.75</v>
+        <f t="shared" si="17"/>
+        <v>12.5</v>
       </c>
       <c r="AA17" s="1">
         <v>0.86</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="38"/>
-        <v>3.4883720930232558E-2</v>
+        <f>(AA14/AA17)*100</f>
+        <v>74.418604651162795</v>
       </c>
       <c r="AC17" s="1">
-        <f t="shared" si="39"/>
-        <v>0.93023255813953487</v>
+        <f t="shared" si="18"/>
+        <v>930.23255813953494</v>
       </c>
       <c r="AD17" s="1">
         <v>0.06</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="40"/>
-        <v>0.5</v>
+        <f>(AD14/AD17)*100</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="41"/>
-        <v>53.75</v>
+        <f t="shared" si="19"/>
+        <v>20.833333333333336</v>
       </c>
       <c r="AG17" s="1">
         <v>0.89</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="42"/>
-        <v>3.3707865168539325E-2</v>
+        <f>(AG14/AG17)*100</f>
+        <v>75.280898876404507</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="43"/>
-        <v>6.2712307290305719E-2</v>
+        <f t="shared" si="20"/>
+        <v>941.01123595505635</v>
       </c>
       <c r="AJ17" s="1">
         <v>6.68</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="44"/>
-        <v>4.4910179640718561E-3</v>
+        <f>(AJ14/AJ17)*100</f>
+        <v>114.67065868263472</v>
       </c>
       <c r="AL17" s="1">
-        <f t="shared" si="45"/>
-        <v>7.1613023952095816</v>
+        <f t="shared" si="21"/>
+        <v>1433.3832335329341</v>
       </c>
       <c r="AM17" s="1">
         <v>7.05</v>
       </c>
       <c r="AN17" s="1">
-        <f t="shared" si="46"/>
-        <v>4.2553191489361703E-3</v>
+        <f>(AM14/AM17)*100</f>
+        <v>114.04255319148935</v>
       </c>
       <c r="AO17" s="1">
-        <f t="shared" si="47"/>
-        <v>5.9421023077906691E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B18" s="16">
+        <f t="shared" si="22"/>
+        <v>1425.5319148936169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>0.13</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="24"/>
-        <v>0.23076923076923075</v>
+        <f>(C14/C18)*100</f>
+        <v>23.076923076923077</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="25"/>
-        <v>1.4423076923076923</v>
+        <f t="shared" si="11"/>
+        <v>144.23076923076923</v>
       </c>
       <c r="F18" s="1">
         <v>0.59</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="26"/>
-        <v>5.0847457627118647E-2</v>
+        <f>(F14/F18)*100</f>
+        <v>571.18644067796617</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="27"/>
-        <v>3.5254237288135593</v>
+        <f t="shared" si="12"/>
+        <v>3569.9152542372885</v>
       </c>
       <c r="I18" s="1">
         <v>0.12</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="28"/>
-        <v>0.25</v>
+        <f>(I14/I18)*100</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="29"/>
-        <v>7.0913461538461533</v>
+        <f t="shared" si="13"/>
+        <v>104.16666666666667</v>
       </c>
       <c r="L18" s="1">
         <v>0.59</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="30"/>
-        <v>5.0847457627118647E-2</v>
+        <f>(L14/L18)*100</f>
+        <v>318.64406779661016</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="31"/>
-        <v>0.71703533467394431</v>
+        <f t="shared" si="14"/>
+        <v>1991.5254237288134</v>
       </c>
       <c r="O18" s="1">
         <v>11.26</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="32"/>
-        <v>2.6642984014209592E-3</v>
+        <f>(O14/O18)*100</f>
+        <v>57.904085257548843</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="33"/>
-        <v>0.37157142369176116</v>
+        <f t="shared" si="15"/>
+        <v>361.90053285968025</v>
       </c>
       <c r="R18" s="1">
         <v>1.51</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="34"/>
-        <v>1.9867549668874173E-2</v>
+        <f>(R14/R18)*100</f>
+        <v>455.62913907284769</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="35"/>
-        <v>5.3468992506149755</v>
-      </c>
-      <c r="W18" s="16">
+        <f t="shared" si="16"/>
+        <v>2847.682119205298</v>
+      </c>
+      <c r="W18" s="1">
         <v>16</v>
       </c>
       <c r="X18" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="36"/>
-        <v>0.42857142857142849</v>
+        <f>(X14/X18)*100</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" si="37"/>
-        <v>2.6785714285714279</v>
+        <f t="shared" si="17"/>
+        <v>8.9285714285714288</v>
       </c>
       <c r="AA18" s="1">
         <v>0.72</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" si="38"/>
-        <v>4.1666666666666664E-2</v>
+        <f>(AA14/AA18)*100</f>
+        <v>88.8888888888889</v>
       </c>
       <c r="AC18" s="1">
-        <f t="shared" si="39"/>
-        <v>1.5555555555555558</v>
+        <f t="shared" si="18"/>
+        <v>555.55555555555566</v>
       </c>
       <c r="AD18" s="1">
         <v>0.06</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="40"/>
-        <v>0.5</v>
+        <f>(AD14/AD18)*100</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="41"/>
-        <v>32.142857142857139</v>
+        <f t="shared" si="19"/>
+        <v>10.416666666666668</v>
       </c>
       <c r="AG18" s="1">
         <v>0.77</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="42"/>
-        <v>3.896103896103896E-2</v>
+        <f>(AG14/AG18)*100</f>
+        <v>87.012987012987026</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="43"/>
-        <v>0.12121212121212123</v>
+        <f t="shared" si="20"/>
+        <v>543.83116883116895</v>
       </c>
       <c r="AJ18" s="1">
         <v>6.69</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="44"/>
-        <v>4.4843049327354259E-3</v>
+        <f>(AJ14/AJ18)*100</f>
+        <v>114.49925261584455</v>
       </c>
       <c r="AL18" s="1">
-        <f t="shared" si="45"/>
-        <v>3.6995515695067258</v>
+        <f t="shared" si="21"/>
+        <v>715.62032884902851</v>
       </c>
       <c r="AM18" s="1">
         <v>7.11</v>
       </c>
       <c r="AN18" s="1">
-        <f t="shared" si="46"/>
-        <v>4.2194092827004216E-3</v>
+        <f>(AM14/AM18)*100</f>
+        <v>113.08016877637128</v>
       </c>
       <c r="AO18" s="1">
-        <f t="shared" si="47"/>
-        <v>0.11405191152026598</v>
+        <f t="shared" si="22"/>
+        <v>706.75105485232052</v>
       </c>
     </row>
   </sheetData>
@@ -14497,5 +16520,6 @@
     <mergeCell ref="W2:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>